--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -575,7 +575,7 @@
         <v>45882.73309027778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>45603</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45901</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45827.64737268518</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44377</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45313</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>45715.38824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45082</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>46009.57934027778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45915</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>45803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44532</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44971</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>45086</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44623</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>45803</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>46009.5597337963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45202</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45936</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>46003.65950231482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45758</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45803</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45196</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45803.55535879629</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44497</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45442</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45092</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>46045</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>45989.96633101852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>46055.35829861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>45841.64539351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45841.80690972223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>45974.6671412037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>45985.99135416667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45985.99530092593</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44500</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44762</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45316</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45736.53695601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>45097</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>45442</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45917.43857638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45107</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45961.38690972222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45961.37217592593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44574</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44719</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44664</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45905.62541666667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>45905.62641203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45952.39770833333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44740</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>44659</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>46037.42877314815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>46003.66043981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44974</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>45371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44495</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45910.59475694445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>45910.59415509259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45831.55982638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45922.80255787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44684</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>45035.44672453704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45972.64483796297</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45336</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>45989.96568287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44804</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44967</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>45762.62260416667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45803.61554398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45715.38105324074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45694.55559027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45903</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45841.81555555556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>45189</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45960.43780092592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45981</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>45954.49768518518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>45222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45985.99173611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>46009.59555555556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>45168.50667824074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45293</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44379</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44487</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45358</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>45107</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>45665</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45694.49650462963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>45811.38710648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>45098</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>45679</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45817</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45817.34614583333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>45896.47487268518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>45901.66702546296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45818.60254629629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>45736.49902777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44917</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44855</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>45825.49060185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45916.48704861111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44958</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45464</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45874.69282407407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>45950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45853.76976851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45805.41232638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44909</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>45874</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44897</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44849</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45385</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44645</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>46001.44021990741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>46009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45314.55579861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44831</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44673.47858796296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45442</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45762.57244212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45107</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45273</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45757.49934027778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44917.59298611111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45783</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45687</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44583.61803240741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44602</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44517</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44602</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44567.81241898148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44544</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44609.61430555556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44526</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44323.58961805556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44299</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44714</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44491.50769675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44569.5340625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44486</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44662.56783564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44572.39640046296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44494</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44659.70381944445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44603</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>44839</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>44700</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44369.65428240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44612</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44886</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44883.56321759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44314</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44610</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44865.43494212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>44357</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44742</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44533.4678587963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>44764</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44453</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44297</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44351</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44349.49666666667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44584.63190972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44609</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44490.64313657407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44281.4499537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44610</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44335.52201388889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>44512</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44740.68142361111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44297</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44705.78475694444</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44705.83326388889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44722.30703703704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44692.87630787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44543</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44383</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44378.69857638889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44643.51446759259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44504.59193287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44750.45800925926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44846</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44446.47693287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44676</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44491.54116898148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44476.61263888889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44847.35622685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44705.84535879629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44799.36359953704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44575</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44575.4366087963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44328.57100694445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44369</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44702.70721064815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44442.35195601852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44442</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44551.59704861111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44838.40635416667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44571.44563657408</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44459</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44634</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44886.58890046296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44698.67151620371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44277.65263888889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44599.43265046296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44461.73350694445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44865</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44479</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44489</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44543.34697916666</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44495</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44522.55518518519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44649</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44847</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44750.678125</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44685.6212037037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44733.43420138889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44711</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44743</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44623.4572337963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44729</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>44266.57917824074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44294.37555555555</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44791.38336805555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>44623</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44659.57912037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44798</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44659</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44593</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>44593.61355324074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45358</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45678</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45293</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44893</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44245</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45223</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44637.35744212963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45615</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44637.56178240741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45091.69766203704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44581.60254629629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45695.59805555556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45695.8391550926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44599.42277777778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>45294.5666550926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44608</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44967.78984953704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>45756.44024305556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45351.54596064815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44816</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>45694.49037037037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44900.54711805555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44872</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44379.56163194445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>45212.34997685185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44532</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>45093.46706018518</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45033</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45552</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45216</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45244.52202546296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>45327</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>45691</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44960</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45231</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45583</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45425.94947916667</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>45295</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45169</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>44809.92752314815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>45638</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>45369</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>45733.63099537037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>45363.54878472222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>45300.55028935185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44617.48311342593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>45107</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>45107</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>45799.53803240741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>44949.4708912037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>45799.57714120371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45733.62903935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>45799.65021990741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45799.6527199074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45737.40503472222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>45799.53947916667</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>45799.54104166666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45149.56928240741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>45693</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>45799.43496527777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>45799.5421875</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>45799.64877314815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45798.42252314815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44395</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44548</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>45078</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45721.60894675926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45803.36384259259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>45086.7037037037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>45555.5727662037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>45803.63395833333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>44593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45608</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45341</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45744</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>45182</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45884</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45839</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>44273</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>44616</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45805.4094675926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45719.40723379629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>45644</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>45644</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>45805.41813657407</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>45805.4255787037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>45646.50211805556</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26255,7 +26255,7 @@
         <v>45055</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26312,7 +26312,7 @@
         <v>45805.43402777778</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45805.41010416667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>44912</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>45611</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>45809</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45215.44233796297</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45810.44339120371</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>45809</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>45407.69575231482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>45307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44512</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>45453.69339120371</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>45097</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>45511</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>45719.43755787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>45810.44299768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>45812.48032407407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>45891.4865625</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45891.46827546296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>45813.46034722222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45182</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45891.33204861111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>45890</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>44904</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>45721.34715277778</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>45814</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45817</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44426</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>45896.57368055556</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45896</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44819.50233796296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45726</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45664</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>45896.57171296296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>45896</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45897</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45818.57910879629</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45896.61050925926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44600</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>45456.59535879629</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45694</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44806</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>45901.41756944444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28833,7 +28833,7 @@
         <v>45338.49412037037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28890,7 +28890,7 @@
         <v>45817</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45901.41853009259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>45236</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>44883</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45903</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45820</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>44799.36695601852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45820</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45820</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>45903.69096064815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>45821.44101851852</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>45903.69358796296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>45202.4997337963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>45902.42243055555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>45905.5756712963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44602</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45799.53348379629</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45809</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45164.82913194445</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30018,7 +30018,7 @@
         <v>45904.77746527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45729</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
         <v>45905.64862268518</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>45809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>45208.4350462963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>45720.60410879629</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>45065.43013888889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>45426.34148148148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>45909.57565972222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44371.49178240741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>45723</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>45699</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>45824.43798611111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44967.80034722222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44967</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45825.44482638889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>45821.45905092593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45827.64092592592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>45912.7097337963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>45631.44464120371</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>45915.64064814815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>45913.39467592593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31364,7 +31364,7 @@
         <v>45827.46288194445</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45000.44666666666</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>44966</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31602,7 +31602,7 @@
         <v>45188</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45177.56940972222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>44560</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>45036</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45827.62096064815</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>45831.40671296296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>45831.42365740741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>45916</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32063,7 +32063,7 @@
         <v>45677.39440972222</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32120,7 +32120,7 @@
         <v>45021.29524305555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>44699</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>45831.72686342592</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>45831.73</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         <v>45918.37322916667</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>45831.42616898148</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>45188.42052083334</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45721.35173611111</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>44886</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>44516</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32710,7 +32710,7 @@
         <v>45922</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>45300.55680555556</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45922</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45923.70230324074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45832.35545138889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>45922.46763888889</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45922.42865740741</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>45923.70146990741</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33181,7 +33181,7 @@
         <v>45208.46130787037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>45922.48148148148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>45832.35590277778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>45173</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>45194</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>45231</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44886.5928125</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33610,7 +33610,7 @@
         <v>45520</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33667,7 +33667,7 @@
         <v>45201.62318287037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33724,7 +33724,7 @@
         <v>45926.63232638889</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45926.45846064815</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33848,7 +33848,7 @@
         <v>45614</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44810</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45926.366875</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34024,7 +34024,7 @@
         <v>45926.63290509259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>45929.69553240741</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34148,7 +34148,7 @@
         <v>45929.6965162037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34210,7 +34210,7 @@
         <v>45121</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>45929.53203703704</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34334,7 +34334,7 @@
         <v>45614</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34391,7 +34391,7 @@
         <v>45926.63366898148</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34453,7 +34453,7 @@
         <v>45926.35917824074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>45926.35998842592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>45729</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>45835.62752314815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>45931.37796296296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>45931.52792824074</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34820,7 +34820,7 @@
         <v>45637</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45930.55024305556</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45391.37361111111</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45931.37734953704</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35058,7 +35058,7 @@
         <v>45931.59373842592</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>45931.59091435185</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44832.49594907407</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45838</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45182</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35353,7 +35353,7 @@
         <v>45821.31292824074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45932.37375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>45932.62907407407</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45317</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45839</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45932.59373842592</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35705,7 +35705,7 @@
         <v>45932.61177083333</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35767,7 +35767,7 @@
         <v>45254</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45763</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45839</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44935</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>45841.5847337963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>45222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>45840</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>45216.39040509259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>45934.55967592593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>45695.83655092592</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45938.35063657408</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>45638</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45937.68865740741</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>44678.3315625</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44501.71344907407</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>45259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>45938.3615625</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45231.62840277778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45705</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45259.52809027778</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45939.32621527778</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45937</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45937</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45642</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45942.79476851852</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
         <v>45390</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45842.74049768518</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45190</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>45942.8396412037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45152</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37604,7 +37604,7 @@
         <v>45679</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>45942.80318287037</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>45054.95675925926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>45940.67084490741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45940.67305555556</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44575</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>44994</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45943.70756944444</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>45763.52744212963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>45940.45038194444</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>45942.84414351852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>44679.68706018518</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45942.80185185185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>45643</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>45845.53202546296</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44733</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>45944</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>45898.46040509259</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38655,7 +38655,7 @@
         <v>45946.64121527778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>45719.4094212963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>45719.43872685185</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38841,7 +38841,7 @@
         <v>45049</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>45202</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45947.58105324074</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39022,7 +39022,7 @@
         <v>45946.76038194444</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39079,7 +39079,7 @@
         <v>45946.30063657407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39136,7 +39136,7 @@
         <v>45946.31299768519</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39193,7 +39193,7 @@
         <v>45259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>45946.75140046296</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>45849.49259259259</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>45644.62677083333</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>45852.39642361111</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>45947.4724537037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>45426</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>45852.72965277778</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>45852</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>45851.62018518519</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>45852.68978009259</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39850,7 +39850,7 @@
         <v>45852.67366898148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39912,7 +39912,7 @@
         <v>45852.36871527778</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39969,7 +39969,7 @@
         <v>45950.55603009259</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
         <v>45851.60097222222</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40093,7 +40093,7 @@
         <v>45854.44017361111</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40155,7 +40155,7 @@
         <v>45856.34034722222</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40217,7 +40217,7 @@
         <v>45856.34231481481</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>45856.34959490741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40341,7 +40341,7 @@
         <v>45856</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>45838</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
         <v>45950</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>44328</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40579,7 +40579,7 @@
         <v>45950</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40636,7 +40636,7 @@
         <v>45949</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40693,7 +40693,7 @@
         <v>45838</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40750,7 +40750,7 @@
         <v>45863.44648148148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40807,7 +40807,7 @@
         <v>45267</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45953.53460648148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45863.45355324074</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45349</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45867.58056712963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45751.32001157408</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45758</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45763</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45953.53765046296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45954.38475694445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45957</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45957.66506944445</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45638</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45954.528125</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45113.80170138889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45954.51438657408</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44964.65261574074</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45670</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41843,7 +41843,7 @@
         <v>45958.60826388889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41905,7 +41905,7 @@
         <v>45958.62303240741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41967,7 +41967,7 @@
         <v>45959.35965277778</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>45113</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>45831.46731481481</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42143,7 +42143,7 @@
         <v>45958.62765046296</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42205,7 +42205,7 @@
         <v>45958.62983796297</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42267,7 +42267,7 @@
         <v>44788</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42324,7 +42324,7 @@
         <v>45098.63572916666</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>45670</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42443,7 +42443,7 @@
         <v>45874</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42500,7 +42500,7 @@
         <v>45874.705</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42557,7 +42557,7 @@
         <v>45361.57299768519</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42619,7 +42619,7 @@
         <v>45456.58491898148</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42676,7 +42676,7 @@
         <v>45877.62969907407</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42733,7 +42733,7 @@
         <v>45958.37273148148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
         <v>45957.95233796296</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>45958.49162037037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>45959.60851851852</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42971,7 +42971,7 @@
         <v>45958.61577546296</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -43033,7 +43033,7 @@
         <v>45958.63368055555</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>45958.64146990741</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -43157,7 +43157,7 @@
         <v>45958.6516087963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         <v>45960.43065972222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>45876</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43333,7 +43333,7 @@
         <v>45851.62179398148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45259</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45460</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>45642.63524305556</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>45763.6503125</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>45876</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>45877.57847222222</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>45961.40716435185</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>45880.34064814815</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43856,7 +43856,7 @@
         <v>45624</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43913,7 +43913,7 @@
         <v>45961.41853009259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43970,7 +43970,7 @@
         <v>45959.36146990741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -44032,7 +44032,7 @@
         <v>45965</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44816</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -44151,7 +44151,7 @@
         <v>45308.63298611111</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -44208,7 +44208,7 @@
         <v>45964.76486111111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44265,7 +44265,7 @@
         <v>45107</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44322,7 +44322,7 @@
         <v>45880</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44379,7 +44379,7 @@
         <v>44535</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>45880.68200231482</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>45881.44938657407</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44550,7 +44550,7 @@
         <v>44629.57741898148</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44612,7 +44612,7 @@
         <v>44608</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>45880.32907407408</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         <v>45965.61792824074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44788,7 +44788,7 @@
         <v>45707</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44850,7 +44850,7 @@
         <v>45881.45898148148</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44907,7 +44907,7 @@
         <v>45644</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44964,7 +44964,7 @@
         <v>44497.4666087963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -45021,7 +45021,7 @@
         <v>44946.43564814814</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -45078,7 +45078,7 @@
         <v>45966.53849537037</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -45140,7 +45140,7 @@
         <v>44965</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -45197,7 +45197,7 @@
         <v>44965</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45254,7 +45254,7 @@
         <v>45679</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45316,7 +45316,7 @@
         <v>45965.82398148148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>44679</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45966.53721064814</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>45336.53908564815</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>45965.81543981482</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45616,7 +45616,7 @@
         <v>45336.54270833333</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>45971.70613425926</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45735,7 +45735,7 @@
         <v>45882.37202546297</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45792,7 +45792,7 @@
         <v>45971.37480324074</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45849,7 +45849,7 @@
         <v>45936.73660879629</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>45691</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45968,7 +45968,7 @@
         <v>45645</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -46030,7 +46030,7 @@
         <v>45972</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -46087,7 +46087,7 @@
         <v>45882.52290509259</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -46144,7 +46144,7 @@
         <v>44614.69730324074</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -46206,7 +46206,7 @@
         <v>45259</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -46263,7 +46263,7 @@
         <v>45840.68518518518</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46320,7 +46320,7 @@
         <v>45975.424375</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46377,7 +46377,7 @@
         <v>45589</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46434,7 +46434,7 @@
         <v>45589</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46491,7 +46491,7 @@
         <v>45695.84078703704</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46553,7 +46553,7 @@
         <v>45975.37621527778</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46615,7 +46615,7 @@
         <v>45975.5341550926</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46672,7 +46672,7 @@
         <v>45695.59197916667</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46734,7 +46734,7 @@
         <v>45478</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46796,7 +46796,7 @@
         <v>45975.59520833333</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46853,7 +46853,7 @@
         <v>45975.65054398148</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46915,7 +46915,7 @@
         <v>45194.63479166666</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46972,7 +46972,7 @@
         <v>45194.60876157408</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>45599</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>45757</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>45600</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44665</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47272,7 +47272,7 @@
         <v>45345.56</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47329,7 +47329,7 @@
         <v>45981.57793981482</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47386,7 +47386,7 @@
         <v>45981</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47448,7 +47448,7 @@
         <v>45981</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47510,7 +47510,7 @@
         <v>45741.45114583334</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47567,7 +47567,7 @@
         <v>45154.34931712963</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47624,7 +47624,7 @@
         <v>45981.60923611111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47686,7 +47686,7 @@
         <v>45981.58204861111</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47743,7 +47743,7 @@
         <v>45981.61822916667</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47805,7 +47805,7 @@
         <v>45980.4484837963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47862,7 +47862,7 @@
         <v>45443</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47924,7 +47924,7 @@
         <v>44599.44832175926</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47981,7 +47981,7 @@
         <v>45310</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -48038,7 +48038,7 @@
         <v>45327.61831018519</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -48095,7 +48095,7 @@
         <v>45958.58711805556</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -48157,7 +48157,7 @@
         <v>44435.38657407407</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -48214,7 +48214,7 @@
         <v>45327</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48271,7 +48271,7 @@
         <v>45982</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48328,7 +48328,7 @@
         <v>45983.85069444445</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48385,7 +48385,7 @@
         <v>45729</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48442,7 +48442,7 @@
         <v>45943.53659722222</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48504,7 +48504,7 @@
         <v>45321</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48561,7 +48561,7 @@
         <v>45943.53451388889</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48623,7 +48623,7 @@
         <v>45943.5354050926</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48685,7 +48685,7 @@
         <v>45943.53341435185</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48747,7 +48747,7 @@
         <v>46029.40886574074</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48804,7 +48804,7 @@
         <v>44403.3119212963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44420</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>45554</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>45988.61304398148</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -49042,7 +49042,7 @@
         <v>46030.56152777778</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -49099,7 +49099,7 @@
         <v>45677</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>45730.43966435185</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -49218,7 +49218,7 @@
         <v>44593</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -49275,7 +49275,7 @@
         <v>45520</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49332,7 +49332,7 @@
         <v>45175.57060185185</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49389,7 +49389,7 @@
         <v>44909.51885416666</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>45729</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>45729</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49565,7 +49565,7 @@
         <v>45181.36815972222</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49622,7 +49622,7 @@
         <v>45713.44519675926</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49679,7 +49679,7 @@
         <v>44553</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49736,7 +49736,7 @@
         <v>45940</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49793,7 +49793,7 @@
         <v>45992.60832175926</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49850,7 +49850,7 @@
         <v>45992.47825231482</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>45190</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>44550.37994212963</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -50026,7 +50026,7 @@
         <v>45048.55349537037</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -50083,7 +50083,7 @@
         <v>45107.53688657407</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -50140,7 +50140,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>45061</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -50259,7 +50259,7 @@
         <v>45994.62346064814</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50321,7 +50321,7 @@
         <v>45995.63483796296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50378,7 +50378,7 @@
         <v>45656</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44977</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>45995.31793981481</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>45167.3721412037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>45468</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44679.66694444444</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50730,7 +50730,7 @@
         <v>45995.31737268518</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50787,7 +50787,7 @@
         <v>45119</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50844,7 +50844,7 @@
         <v>45763.52995370371</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50901,7 +50901,7 @@
         <v>45316</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50963,7 +50963,7 @@
         <v>45614.65928240741</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -51020,7 +51020,7 @@
         <v>44531</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -51077,7 +51077,7 @@
         <v>45581</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -51134,7 +51134,7 @@
         <v>45344.69567129629</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -51196,7 +51196,7 @@
         <v>45694</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -51253,7 +51253,7 @@
         <v>44508.44033564815</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -51315,7 +51315,7 @@
         <v>44644.37548611111</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51377,7 +51377,7 @@
         <v>45426.61569444444</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51434,7 +51434,7 @@
         <v>45987</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51491,7 +51491,7 @@
         <v>46031.63210648148</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51548,7 +51548,7 @@
         <v>45999</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51605,7 +51605,7 @@
         <v>45187.61136574074</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51667,7 +51667,7 @@
         <v>44531</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51724,7 +51724,7 @@
         <v>44400.6750925926</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51786,7 +51786,7 @@
         <v>44532</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51843,7 +51843,7 @@
         <v>44944</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51900,7 +51900,7 @@
         <v>45161</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         <v>45618.71140046296</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -52014,7 +52014,7 @@
         <v>45548.42854166667</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -52071,7 +52071,7 @@
         <v>44742</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -52133,7 +52133,7 @@
         <v>45583.47836805556</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -52195,7 +52195,7 @@
         <v>44519.64902777778</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -52252,7 +52252,7 @@
         <v>45736.60863425926</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -52314,7 +52314,7 @@
         <v>44967</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52371,7 +52371,7 @@
         <v>44568.67040509259</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52433,7 +52433,7 @@
         <v>46045</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52490,7 +52490,7 @@
         <v>45054.9271875</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52547,7 +52547,7 @@
         <v>44859.36896990741</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52604,7 +52604,7 @@
         <v>45693</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52661,7 +52661,7 @@
         <v>44832</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52718,7 +52718,7 @@
         <v>45981</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52775,7 +52775,7 @@
         <v>45601</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52832,7 +52832,7 @@
         <v>46049.58660879629</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52889,7 +52889,7 @@
         <v>45133</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         <v>45523</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -53003,7 +53003,7 @@
         <v>46030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>44645.39157407408</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -53127,7 +53127,7 @@
         <v>45371.50738425926</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -53189,7 +53189,7 @@
         <v>46051.48957175926</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -53246,7 +53246,7 @@
         <v>46051</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53303,7 +53303,7 @@
         <v>44616</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45743.50744212963</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45042</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>46009.63920138889</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45047.31793981481</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44624.64538194444</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45327</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53712,7 +53712,7 @@
         <v>45050.49392361111</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53769,7 +53769,7 @@
         <v>46055.61907407407</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         <v>46013.55923611111</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53883,7 +53883,7 @@
         <v>46013.57037037037</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53940,7 +53940,7 @@
         <v>45037</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -54002,7 +54002,7 @@
         <v>46013.56292824074</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -54059,7 +54059,7 @@
         <v>46011.70635416666</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -54116,7 +54116,7 @@
         <v>45300</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -54173,7 +54173,7 @@
         <v>44533.46665509259</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -54230,7 +54230,7 @@
         <v>46051.88001157407</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54292,7 +54292,7 @@
         <v>46013.56641203703</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54349,7 +54349,7 @@
         <v>45162</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54411,7 +54411,7 @@
         <v>45154.35092592592</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54468,7 +54468,7 @@
         <v>45693</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54525,7 +54525,7 @@
         <v>45691</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54582,7 +54582,7 @@
         <v>44849</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54639,7 +54639,7 @@
         <v>46055.36872685186</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54701,7 +54701,7 @@
         <v>45677</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54758,7 +54758,7 @@
         <v>45757.6997337963</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54815,7 +54815,7 @@
         <v>45757</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54872,7 +54872,7 @@
         <v>45617.59006944444</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54929,7 +54929,7 @@
         <v>46014.45854166667</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54986,7 +54986,7 @@
         <v>44977</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -55048,7 +55048,7 @@
         <v>46014.35287037037</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -55110,7 +55110,7 @@
         <v>46057.6280787037</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -55167,7 +55167,7 @@
         <v>44993</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -55224,7 +55224,7 @@
         <v>46057.60431712963</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55281,7 +55281,7 @@
         <v>45068.58563657408</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55338,7 +55338,7 @@
         <v>44929</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55395,7 +55395,7 @@
         <v>44847</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55452,7 +55452,7 @@
         <v>45968.76021990741</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55514,7 +55514,7 @@
         <v>45601</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55576,7 +55576,7 @@
         <v>44544</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55633,7 +55633,7 @@
         <v>45159.45748842593</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>46059.43493055556</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>46059.4413425926</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>45624</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>46059.76059027778</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>46059.76631944445</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55995,7 +55995,7 @@
         <v>45127</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>45216</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -56114,7 +56114,7 @@
         <v>44909</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>45614</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -56233,7 +56233,7 @@
         <v>45145</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56290,7 +56290,7 @@
         <v>44551.76711805556</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56352,7 +56352,7 @@
         <v>45236.47697916667</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56409,7 +56409,7 @@
         <v>45341</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56471,7 +56471,7 @@
         <v>45006</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56528,7 +56528,7 @@
         <v>45202</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56585,7 +56585,7 @@
         <v>45474.41729166666</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56647,7 +56647,7 @@
         <v>44946</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56704,7 +56704,7 @@
         <v>44522</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56761,7 +56761,7 @@
         <v>44593.64863425926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56823,7 +56823,7 @@
         <v>45152</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56885,7 +56885,7 @@
         <v>45299</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56942,7 +56942,7 @@
         <v>44403.29719907408</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45642</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -57066,7 +57066,7 @@
         <v>45307</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -57123,7 +57123,7 @@
         <v>45351.48662037037</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -57180,7 +57180,7 @@
         <v>45371</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -57242,7 +57242,7 @@
         <v>44358.63490740741</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57299,7 +57299,7 @@
         <v>44908.425625</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57356,7 +57356,7 @@
         <v>45163.59913194444</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57413,7 +57413,7 @@
         <v>45181.58055555556</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         <v>45134.57021990741</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57537,7 +57537,7 @@
         <v>44866</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57594,7 +57594,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57651,7 +57651,7 @@
         <v>45341.63811342593</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57708,7 +57708,7 @@
         <v>45446.78256944445</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57770,7 +57770,7 @@
         <v>45524</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57832,7 +57832,7 @@
         <v>45344</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57894,7 +57894,7 @@
         <v>44817</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57951,7 +57951,7 @@
         <v>44629.42423611111</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -58008,7 +58008,7 @@
         <v>44574</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -58065,7 +58065,7 @@
         <v>45096</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -58122,7 +58122,7 @@
         <v>45580</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -58179,7 +58179,7 @@
         <v>45293</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -58236,7 +58236,7 @@
         <v>45656</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -58298,7 +58298,7 @@
         <v>45757.67611111111</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -58355,7 +58355,7 @@
         <v>44560</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -58412,7 +58412,7 @@
         <v>44446</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -58469,7 +58469,7 @@
         <v>44594</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58526,7 +58526,7 @@
         <v>45552</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58583,7 +58583,7 @@
         <v>45426</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58640,7 +58640,7 @@
         <v>44912.29869212963</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58697,7 +58697,7 @@
         <v>44967.55960648148</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58754,7 +58754,7 @@
         <v>44614.59027777778</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58811,7 +58811,7 @@
         <v>44930</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58868,7 +58868,7 @@
         <v>45098.62966435185</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58925,7 +58925,7 @@
         <v>45756.50738425926</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58982,7 +58982,7 @@
         <v>45014</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -59039,7 +59039,7 @@
         <v>45175</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -59101,7 +59101,7 @@
         <v>45474</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -59158,7 +59158,7 @@
         <v>45194</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -59220,7 +59220,7 @@
         <v>44819.62</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -59277,7 +59277,7 @@
         <v>45335</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -59339,7 +59339,7 @@
         <v>45341</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -59401,7 +59401,7 @@
         <v>45714.55368055555</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59458,7 +59458,7 @@
         <v>45719.42197916667</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59520,7 +59520,7 @@
         <v>45719.43646990741</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59582,7 +59582,7 @@
         <v>44914.67600694444</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59639,7 +59639,7 @@
         <v>44984.69216435185</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59701,7 +59701,7 @@
         <v>44379.5745949074</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59758,7 +59758,7 @@
         <v>45524</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59820,7 +59820,7 @@
         <v>44623.5571875</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59882,7 +59882,7 @@
         <v>44960</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59939,7 +59939,7 @@
         <v>44960.66233796296</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59996,7 +59996,7 @@
         <v>44532</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -60053,7 +60053,7 @@
         <v>44820.47935185185</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -60115,7 +60115,7 @@
         <v>45352</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -60172,7 +60172,7 @@
         <v>45181.33571759259</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -60229,7 +60229,7 @@
         <v>45358</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -60286,7 +60286,7 @@
         <v>44894.57065972222</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -60348,7 +60348,7 @@
         <v>44378.56137731481</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -60405,7 +60405,7 @@
         <v>44944</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60462,7 +60462,7 @@
         <v>44504</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60519,7 +60519,7 @@
         <v>45225.46480324074</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60576,7 +60576,7 @@
         <v>45254</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60633,7 +60633,7 @@
         <v>44603</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60690,7 +60690,7 @@
         <v>45513.51815972223</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60752,7 +60752,7 @@
         <v>44848</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60809,7 +60809,7 @@
         <v>44438</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60871,7 +60871,7 @@
         <v>45693</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60928,7 +60928,7 @@
         <v>45379</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60985,7 +60985,7 @@
         <v>45323.55914351852</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -61047,7 +61047,7 @@
         <v>44588</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -61104,7 +61104,7 @@
         <v>44883</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -61166,7 +61166,7 @@
         <v>45693</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -61223,7 +61223,7 @@
         <v>44553</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -61280,7 +61280,7 @@
         <v>45770.61341435185</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -61342,7 +61342,7 @@
         <v>45096</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61399,7 +61399,7 @@
         <v>45148</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61456,7 +61456,7 @@
         <v>44980</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61513,7 +61513,7 @@
         <v>45104.6828125</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61570,7 +61570,7 @@
         <v>45478.60802083334</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61632,7 +61632,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61689,7 +61689,7 @@
         <v>44977</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         <v>45231.54601851852</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -61803,7 +61803,7 @@
         <v>44609.60171296296</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -61865,7 +61865,7 @@
         <v>45761.47540509259</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61922,7 +61922,7 @@
         <v>45761.47748842592</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61979,7 +61979,7 @@
         <v>45173</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -62036,7 +62036,7 @@
         <v>45699.71063657408</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -62093,7 +62093,7 @@
         <v>44888</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         <v>45110</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -62212,7 +62212,7 @@
         <v>45594</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -62274,7 +62274,7 @@
         <v>44623.41775462963</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -62336,7 +62336,7 @@
         <v>45644.47723379629</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -62393,7 +62393,7 @@
         <v>45075.51982638889</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -62450,7 +62450,7 @@
         <v>45614.67020833334</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -62507,7 +62507,7 @@
         <v>45148</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -62564,7 +62564,7 @@
         <v>45148</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -62621,7 +62621,7 @@
         <v>45182</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -62678,7 +62678,7 @@
         <v>45266</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -62735,7 +62735,7 @@
         <v>45646.61892361111</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -62792,7 +62792,7 @@
         <v>45089</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -62849,7 +62849,7 @@
         <v>44652</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62906,7 +62906,7 @@
         <v>45583</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62968,7 +62968,7 @@
         <v>45583</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -63030,7 +63030,7 @@
         <v>45699</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -63087,7 +63087,7 @@
         <v>45131</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -63144,7 +63144,7 @@
         <v>45694</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -63201,7 +63201,7 @@
         <v>44624.35083333333</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -63263,7 +63263,7 @@
         <v>45685.5778125</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -63320,7 +63320,7 @@
         <v>45097</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -63377,7 +63377,7 @@
         <v>45435.34778935185</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -63439,7 +63439,7 @@
         <v>44897</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -63496,7 +63496,7 @@
         <v>45317</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -63553,7 +63553,7 @@
         <v>45180.40255787037</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -63615,7 +63615,7 @@
         <v>45611</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -63672,7 +63672,7 @@
         <v>45049.66025462963</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -63729,7 +63729,7 @@
         <v>45159.44694444445</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -63786,7 +63786,7 @@
         <v>45254.49552083333</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -63843,7 +63843,7 @@
         <v>45344.64759259259</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63905,7 +63905,7 @@
         <v>45769.6009375</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63962,7 +63962,7 @@
         <v>45762.61341435185</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -64019,7 +64019,7 @@
         <v>44610</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -64081,7 +64081,7 @@
         <v>45453</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -64138,7 +64138,7 @@
         <v>45638</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -64195,7 +64195,7 @@
         <v>45776.6415162037</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -64257,7 +64257,7 @@
         <v>45520</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -64314,7 +64314,7 @@
         <v>45777.37119212963</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -64376,7 +64376,7 @@
         <v>45777</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -64433,7 +64433,7 @@
         <v>45107.55574074074</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -64490,7 +64490,7 @@
         <v>45776.45263888889</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -64552,7 +64552,7 @@
         <v>45777.52655092593</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -64609,7 +64609,7 @@
         <v>45777.34894675926</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -64671,7 +64671,7 @@
         <v>45574</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -64728,7 +64728,7 @@
         <v>45776.48275462963</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -64790,7 +64790,7 @@
         <v>45776</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -64847,7 +64847,7 @@
         <v>45777.32731481481</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64909,7 +64909,7 @@
         <v>45779.49085648148</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64971,7 +64971,7 @@
         <v>45779.6665162037</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -65033,7 +65033,7 @@
         <v>45779.65787037037</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -65095,7 +65095,7 @@
         <v>45783.61053240741</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -65152,7 +65152,7 @@
         <v>45784.80497685185</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -65209,7 +65209,7 @@
         <v>45784.57266203704</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -65271,7 +65271,7 @@
         <v>45558.42498842593</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -65328,7 +65328,7 @@
         <v>44569.69358796296</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -65390,7 +65390,7 @@
         <v>45254</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -65447,7 +65447,7 @@
         <v>45368.64787037037</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -65509,7 +65509,7 @@
         <v>45584.60038194444</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -65566,7 +65566,7 @@
         <v>45091</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -65628,7 +65628,7 @@
         <v>45371.67368055556</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -65685,7 +65685,7 @@
         <v>45684</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -65742,7 +65742,7 @@
         <v>45407.49721064815</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -65799,7 +65799,7 @@
         <v>45562</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -65856,7 +65856,7 @@
         <v>45177.79766203704</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65918,7 +65918,7 @@
         <v>45625.58501157408</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65980,7 +65980,7 @@
         <v>45329</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -66037,7 +66037,7 @@
         <v>44569.49344907407</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -66099,7 +66099,7 @@
         <v>45583.48449074074</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -66161,7 +66161,7 @@
         <v>45790.44972222222</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -66218,7 +66218,7 @@
         <v>45726</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -66275,7 +66275,7 @@
         <v>45790.51040509259</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -66332,7 +66332,7 @@
         <v>45490</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -66389,7 +66389,7 @@
         <v>45195.64807870371</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -66446,7 +66446,7 @@
         <v>45439</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -66508,7 +66508,7 @@
         <v>45335.66331018518</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -66570,7 +66570,7 @@
         <v>45636</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -66627,7 +66627,7 @@
         <v>45797.42777777778</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -66684,7 +66684,7 @@
         <v>44277.65650462963</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -66741,7 +66741,7 @@
         <v>45797.45900462963</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -66803,7 +66803,7 @@
         <v>45525</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -66860,7 +66860,7 @@
         <v>45429</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -575,7 +575,7 @@
         <v>45882.73309027778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>45603</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45901</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45827.64737268518</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44377</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45313</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>45715.38824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45082</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>46009.57934027778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45915</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>45803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44532</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>44971</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>45086</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>44623</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         <v>45803</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>46009.5597337963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45202</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>44575</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>45936</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>46003.65950231482</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         <v>45758</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>45803</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
         <v>45196</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>45803.55535879629</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44497</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45442</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>45092</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>44792</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>46045</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>45989.96633101852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>46055.35829861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>45841.64539351852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>45841.80690972223</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>45974.6671412037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>45985.99135416667</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45985.99530092593</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>44500</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44762</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         <v>45316</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45736.53695601852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>45097</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>45442</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>45917.43857638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45107</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45961.38690972222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45961.37217592593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>44574</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44719</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>44664</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45905.62541666667</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>45905.62641203704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45952.39770833333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>44740</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>44659</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>46037.42877314815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>46003.66043981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>44974</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>45371</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>44791</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
         <v>44495</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45910.59475694445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>45910.59415509259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>45831.55982638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45922.80255787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44684</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         <v>45035.44672453704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7710,7 +7710,7 @@
         <v>45972.64483796297</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45336</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>45989.96568287037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44804</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44967</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>45762.62260416667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>45803.61554398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>45715.38105324074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8529,7 +8529,7 @@
         <v>45694.55559027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>45903</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45841.81555555556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>45189</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45960.43780092592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45981</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>45954.49768518518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>45222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>45985.99173611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>46009.59555555556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>45168.50667824074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>45293</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>44614</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44379</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44651</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44487</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10040,7 +10040,7 @@
         <v>45358</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>45107</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>45665</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45694.49650462963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>45811.38710648148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
         <v>45098</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>45679</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>45817</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45817.34614583333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>45896.47487268518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>45901.66702546296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>45818.60254629629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>45736.49902777778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
         <v>44917</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>44855</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>45825.49060185185</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45916.48704861111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11557,7 +11557,7 @@
         <v>44958</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
         <v>45464</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45874.69282407407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         <v>45167</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>45950</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>45853.76976851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45805.41232638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44909</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>45874</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44897</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
         <v>44849</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45385</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44645</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>46001.44021990741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>46009</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>45314.55579861111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>44831</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>44673.47858796296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>45442</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>45762.57244212963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45107</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>45273</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45757.49934027778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44917.59298611111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45783</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45687</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>44583.61803240741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>44602</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44517</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>44602</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>44567.81241898148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>44544</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>44489</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>44609.61430555556</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>44526</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44323.58961805556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>44299</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44714</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44491.50769675926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44252</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44569.5340625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44486</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15008,7 +15008,7 @@
         <v>44662.56783564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44572.39640046296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15132,7 +15132,7 @@
         <v>44494</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44659.70381944445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44603</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>44839</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>44700</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44784</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44369.65428240741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44612</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44886</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44883.56321759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44314</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44610</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44865.43494212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>44357</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44742</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44533.4678587963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>44764</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44453</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44297</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44351</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44349.49666666667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44584.63190972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44609</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16674,7 +16674,7 @@
         <v>44490.64313657407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44281.4499537037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44610</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44335.52201388889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
         <v>44512</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44740.68142361111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44297</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44705.78475694444</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         <v>44705.83326388889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44722.30703703704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44692.87630787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44543</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44383</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44378.69857638889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17631,7 +17631,7 @@
         <v>44643.51446759259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
         <v>44504.59193287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44750.45800925926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44846</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44446.47693287037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44676</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44491.54116898148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44476.61263888889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44847.35622685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44705.84535879629</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44799.36359953704</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44575</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44575.4366087963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18387,7 +18387,7 @@
         <v>44328.57100694445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18444,7 +18444,7 @@
         <v>44369</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44702.70721064815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44442.35195601852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44442</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44551.59704861111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44838.40635416667</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44571.44563657408</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44459</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44517</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44634</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44886.58890046296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44698.67151620371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44277.65263888889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44599.43265046296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44461.73350694445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44865</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44479</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44489</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44543.34697916666</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44495</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44522.55518518519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44649</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44847</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44750.678125</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44685.6212037037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44733.43420138889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44711</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20070,7 +20070,7 @@
         <v>44743</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20127,7 +20127,7 @@
         <v>44623.4572337963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
         <v>44729</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20246,7 +20246,7 @@
         <v>44266.57917824074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44294.37555555555</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20370,7 +20370,7 @@
         <v>44791.38336805555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>44623</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20494,7 +20494,7 @@
         <v>44659.57912037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20556,7 +20556,7 @@
         <v>44798</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
         <v>44659</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>44593</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20737,7 +20737,7 @@
         <v>44593.61355324074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45358</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20861,7 +20861,7 @@
         <v>45678</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45293</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>44893</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>44245</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45223</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44637.35744212963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>45615</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44637.56178240741</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>45091.69766203704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44581.60254629629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45695.59805555556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>45695.8391550926</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44599.42277777778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44519</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>45294.5666550926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44608</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21798,7 +21798,7 @@
         <v>44967.78984953704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
         <v>45756.44024305556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21969,7 +21969,7 @@
         <v>45351.54596064815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22031,7 +22031,7 @@
         <v>44816</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>45694.49037037037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44900.54711805555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22207,7 +22207,7 @@
         <v>44872</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>44379.56163194445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>45212.34997685185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22378,7 +22378,7 @@
         <v>44532</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22435,7 +22435,7 @@
         <v>44969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44944</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>45093.46706018518</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45033</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45552</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>45216</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22839,7 +22839,7 @@
         <v>45244.52202546296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>45327</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>45691</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>44960</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45231</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45583</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45425.94947916667</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>45295</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23310,7 +23310,7 @@
         <v>45169</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>44809.92752314815</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>45638</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>45369</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>45733.63099537037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>45363.54878472222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>45300.55028935185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44617.48311342593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>45107</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>45107</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>45799.53803240741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>44949.4708912037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>45799.57714120371</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45733.62903935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>45799.65021990741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45799.6527199074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45737.40503472222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24304,7 +24304,7 @@
         <v>45799.53947916667</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>45799.54104166666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45149.56928240741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>45693</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>45799.43496527777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>45799.5421875</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>45799.64877314815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45798.42252314815</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44395</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44548</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>45078</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45721.60894675926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>45803.36384259259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25142,7 +25142,7 @@
         <v>45086.7037037037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>45555.5727662037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>45803.63395833333</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>44593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45608</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45341</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45744</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25551,7 +25551,7 @@
         <v>45182</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45884</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25665,7 +25665,7 @@
         <v>45839</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25722,7 +25722,7 @@
         <v>44273</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25779,7 +25779,7 @@
         <v>44616</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
         <v>45805.4094675926</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25898,7 +25898,7 @@
         <v>45719.40723379629</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25960,7 +25960,7 @@
         <v>45644</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26017,7 +26017,7 @@
         <v>45644</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         <v>45805.41813657407</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26136,7 +26136,7 @@
         <v>45805.4255787037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26198,7 +26198,7 @@
         <v>45646.50211805556</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26255,7 +26255,7 @@
         <v>45055</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26312,7 +26312,7 @@
         <v>45805.43402777778</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26374,7 +26374,7 @@
         <v>45805.41010416667</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>44912</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>45611</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>45809</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26612,7 +26612,7 @@
         <v>45215.44233796297</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26669,7 +26669,7 @@
         <v>45810.44339120371</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         <v>45809</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>45407.69575231482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>45307</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>44512</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>45453.69339120371</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27021,7 +27021,7 @@
         <v>45097</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>45511</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>45719.43755787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27197,7 +27197,7 @@
         <v>45810.44299768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>45812.48032407407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>45891.4865625</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45891.46827546296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>45813.46034722222</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45182</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45891.33204861111</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>45890</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>44904</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27725,7 +27725,7 @@
         <v>45721.34715277778</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         <v>45814</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27839,7 +27839,7 @@
         <v>45817</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27896,7 +27896,7 @@
         <v>44426</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>45896.57368055556</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45896</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>44819.50233796296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45726</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45664</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>45896.57171296296</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>45896</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45897</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28419,7 +28419,7 @@
         <v>45818.57910879629</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45896.61050925926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44600</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28600,7 +28600,7 @@
         <v>45456.59535879629</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28657,7 +28657,7 @@
         <v>45694</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44806</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>45901.41756944444</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28833,7 +28833,7 @@
         <v>45338.49412037037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28890,7 +28890,7 @@
         <v>45817</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>45901.41853009259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>45236</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>44883</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45903</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45820</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>44799.36695601852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45820</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45820</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>45903.69096064815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>45821.44101851852</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>45903.69358796296</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>45202.4997337963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>45902.42243055555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>45905.5756712963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44602</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>45799.53348379629</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29894,7 +29894,7 @@
         <v>45809</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45164.82913194445</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30018,7 +30018,7 @@
         <v>45904.77746527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45729</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
         <v>45905.64862268518</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30189,7 +30189,7 @@
         <v>45809</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45904</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>45208.4350462963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>45720.60410879629</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>45065.43013888889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>45426.34148148148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>45909.57565972222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30598,7 +30598,7 @@
         <v>44371.49178240741</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>45723</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>45699</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>45824.43798611111</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>44967.80034722222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44967</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45825.44482638889</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>45821.45905092593</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45827.64092592592</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>45912.7097337963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>45631.44464120371</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>45915.64064814815</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31302,7 +31302,7 @@
         <v>45913.39467592593</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31364,7 +31364,7 @@
         <v>45827.46288194445</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         <v>44503</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         <v>45000.44666666666</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31540,7 +31540,7 @@
         <v>44966</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31602,7 +31602,7 @@
         <v>45188</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31664,7 +31664,7 @@
         <v>45177.56940972222</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31721,7 +31721,7 @@
         <v>44560</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31778,7 +31778,7 @@
         <v>45036</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31835,7 +31835,7 @@
         <v>45827.62096064815</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31892,7 +31892,7 @@
         <v>45831.40671296296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31949,7 +31949,7 @@
         <v>45831.42365740741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32006,7 +32006,7 @@
         <v>45916</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32063,7 +32063,7 @@
         <v>45677.39440972222</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32120,7 +32120,7 @@
         <v>45021.29524305555</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32182,7 +32182,7 @@
         <v>44699</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32244,7 +32244,7 @@
         <v>45831.72686342592</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         <v>45831.73</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32368,7 +32368,7 @@
         <v>45918.37322916667</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32425,7 +32425,7 @@
         <v>45831.42616898148</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32482,7 +32482,7 @@
         <v>45188.42052083334</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32539,7 +32539,7 @@
         <v>45721.35173611111</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32596,7 +32596,7 @@
         <v>44886</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32653,7 +32653,7 @@
         <v>44516</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32710,7 +32710,7 @@
         <v>45922</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>45300.55680555556</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>45922</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>45923.70230324074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32943,7 +32943,7 @@
         <v>45832.35545138889</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>45922.46763888889</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45922.42865740741</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>45923.70146990741</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33181,7 +33181,7 @@
         <v>45208.46130787037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33238,7 +33238,7 @@
         <v>45922.48148148148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>45832.35590277778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>45173</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>45194</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>45231</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44886.5928125</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33610,7 +33610,7 @@
         <v>45520</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33667,7 +33667,7 @@
         <v>45201.62318287037</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33724,7 +33724,7 @@
         <v>45926.63232638889</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>45926.45846064815</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33848,7 +33848,7 @@
         <v>45614</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44810</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33962,7 +33962,7 @@
         <v>45926.366875</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34024,7 +34024,7 @@
         <v>45926.63290509259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>45929.69553240741</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34148,7 +34148,7 @@
         <v>45929.6965162037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34210,7 +34210,7 @@
         <v>45121</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>45929.53203703704</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34334,7 +34334,7 @@
         <v>45614</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34391,7 +34391,7 @@
         <v>45926.63366898148</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34453,7 +34453,7 @@
         <v>45926.35917824074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>45926.35998842592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>45729</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34634,7 +34634,7 @@
         <v>45835.62752314815</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>45931.37796296296</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>45931.52792824074</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34820,7 +34820,7 @@
         <v>45637</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34882,7 +34882,7 @@
         <v>45930.55024305556</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         <v>45391.37361111111</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34996,7 +34996,7 @@
         <v>45931.37734953704</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35058,7 +35058,7 @@
         <v>45931.59373842592</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35120,7 +35120,7 @@
         <v>45931.59091435185</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>44832.49594907407</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45838</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45182</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35353,7 +35353,7 @@
         <v>45821.31292824074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45932.37375</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>45932.62907407407</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35529,7 +35529,7 @@
         <v>45317</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         <v>45839</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35643,7 +35643,7 @@
         <v>45932.59373842592</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35705,7 +35705,7 @@
         <v>45932.61177083333</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35767,7 +35767,7 @@
         <v>45254</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>45763</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35881,7 +35881,7 @@
         <v>45839</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44935</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>45841.5847337963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>45222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>45840</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>45216.39040509259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>45934.55967592593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>45695.83655092592</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45938.35063657408</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>45638</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45937.68865740741</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>44678.3315625</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>44501.71344907407</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>44588</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>45259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>45938.3615625</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45231.62840277778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45705</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45259.52809027778</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37019,7 +37019,7 @@
         <v>45939.32621527778</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37076,7 +37076,7 @@
         <v>45937</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37133,7 +37133,7 @@
         <v>45937</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45642</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45942.79476851852</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
         <v>45390</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45842.74049768518</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45190</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>45942.8396412037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45152</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37604,7 +37604,7 @@
         <v>45679</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37661,7 +37661,7 @@
         <v>45942.80318287037</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>45054.95675925926</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>45940.67084490741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45940.67305555556</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>44575</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>44994</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45943.70756944444</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>45763.52744212963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38127,7 +38127,7 @@
         <v>45940.45038194444</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>45942.84414351852</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>44679.68706018518</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38308,7 +38308,7 @@
         <v>45942.80185185185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38370,7 +38370,7 @@
         <v>45643</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38427,7 +38427,7 @@
         <v>45845.53202546296</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38484,7 +38484,7 @@
         <v>44733</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>45944</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38598,7 +38598,7 @@
         <v>45898.46040509259</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38655,7 +38655,7 @@
         <v>45946.64121527778</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>45719.4094212963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38779,7 +38779,7 @@
         <v>45719.43872685185</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38841,7 +38841,7 @@
         <v>45049</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>45202</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38960,7 +38960,7 @@
         <v>45947.58105324074</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39022,7 +39022,7 @@
         <v>45946.76038194444</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39079,7 +39079,7 @@
         <v>45946.30063657407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39136,7 +39136,7 @@
         <v>45946.31299768519</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39193,7 +39193,7 @@
         <v>45259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>45946.75140046296</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39312,7 +39312,7 @@
         <v>45849.49259259259</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39369,7 +39369,7 @@
         <v>45644.62677083333</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         <v>45852.39642361111</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39483,7 +39483,7 @@
         <v>45947.4724537037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39545,7 +39545,7 @@
         <v>45426</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39602,7 +39602,7 @@
         <v>45852.72965277778</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>45852</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39726,7 +39726,7 @@
         <v>45851.62018518519</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>45852.68978009259</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39850,7 +39850,7 @@
         <v>45852.67366898148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39912,7 +39912,7 @@
         <v>45852.36871527778</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39969,7 +39969,7 @@
         <v>45950.55603009259</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
         <v>45851.60097222222</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40093,7 +40093,7 @@
         <v>45854.44017361111</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40155,7 +40155,7 @@
         <v>45856.34034722222</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40217,7 +40217,7 @@
         <v>45856.34231481481</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>45856.34959490741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40341,7 +40341,7 @@
         <v>45856</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>45838</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40460,7 +40460,7 @@
         <v>45950</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40517,7 +40517,7 @@
         <v>44328</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40579,7 +40579,7 @@
         <v>45950</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40636,7 +40636,7 @@
         <v>45949</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40693,7 +40693,7 @@
         <v>45838</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40750,7 +40750,7 @@
         <v>45863.44648148148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40807,7 +40807,7 @@
         <v>45267</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45953.53460648148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40926,7 +40926,7 @@
         <v>45863.45355324074</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40983,7 +40983,7 @@
         <v>45349</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41040,7 +41040,7 @@
         <v>45867.58056712963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41097,7 +41097,7 @@
         <v>45751.32001157408</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41154,7 +41154,7 @@
         <v>45758</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41211,7 +41211,7 @@
         <v>45763</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41268,7 +41268,7 @@
         <v>45953.53765046296</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41325,7 +41325,7 @@
         <v>45954.38475694445</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41382,7 +41382,7 @@
         <v>45957</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41439,7 +41439,7 @@
         <v>45957.66506944445</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41496,7 +41496,7 @@
         <v>45638</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41553,7 +41553,7 @@
         <v>45954.528125</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41610,7 +41610,7 @@
         <v>45113.80170138889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41667,7 +41667,7 @@
         <v>45954.51438657408</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41724,7 +41724,7 @@
         <v>44964.65261574074</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         <v>45670</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41843,7 +41843,7 @@
         <v>45958.60826388889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41905,7 +41905,7 @@
         <v>45958.62303240741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41967,7 +41967,7 @@
         <v>45959.35965277778</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42029,7 +42029,7 @@
         <v>45113</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42086,7 +42086,7 @@
         <v>45831.46731481481</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42143,7 +42143,7 @@
         <v>45958.62765046296</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42205,7 +42205,7 @@
         <v>45958.62983796297</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42267,7 +42267,7 @@
         <v>44788</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42324,7 +42324,7 @@
         <v>45098.63572916666</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42381,7 +42381,7 @@
         <v>45670</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42443,7 +42443,7 @@
         <v>45874</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42500,7 +42500,7 @@
         <v>45874.705</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42557,7 +42557,7 @@
         <v>45361.57299768519</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42619,7 +42619,7 @@
         <v>45456.58491898148</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42676,7 +42676,7 @@
         <v>45877.62969907407</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42733,7 +42733,7 @@
         <v>45958.37273148148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42790,7 +42790,7 @@
         <v>45957.95233796296</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>45958.49162037037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>45959.60851851852</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42971,7 +42971,7 @@
         <v>45958.61577546296</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -43033,7 +43033,7 @@
         <v>45958.63368055555</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>45958.64146990741</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -43157,7 +43157,7 @@
         <v>45958.6516087963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         <v>45960.43065972222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43276,7 +43276,7 @@
         <v>45876</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43333,7 +43333,7 @@
         <v>45851.62179398148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45259</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45460</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>45642.63524305556</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>45763.6503125</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43628,7 +43628,7 @@
         <v>45876</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43685,7 +43685,7 @@
         <v>45877.57847222222</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>45961.40716435185</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>45880.34064814815</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43856,7 +43856,7 @@
         <v>45624</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43913,7 +43913,7 @@
         <v>45961.41853009259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43970,7 +43970,7 @@
         <v>45959.36146990741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -44032,7 +44032,7 @@
         <v>45965</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44816</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -44151,7 +44151,7 @@
         <v>45308.63298611111</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -44208,7 +44208,7 @@
         <v>45964.76486111111</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44265,7 +44265,7 @@
         <v>45107</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44322,7 +44322,7 @@
         <v>45880</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44379,7 +44379,7 @@
         <v>44535</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>45880.68200231482</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44493,7 +44493,7 @@
         <v>45881.44938657407</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44550,7 +44550,7 @@
         <v>44629.57741898148</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44612,7 +44612,7 @@
         <v>44608</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>45880.32907407408</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         <v>45965.61792824074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44788,7 +44788,7 @@
         <v>45707</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44850,7 +44850,7 @@
         <v>45881.45898148148</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44907,7 +44907,7 @@
         <v>45644</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44964,7 +44964,7 @@
         <v>44497.4666087963</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -45021,7 +45021,7 @@
         <v>44946.43564814814</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -45078,7 +45078,7 @@
         <v>45966.53849537037</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -45140,7 +45140,7 @@
         <v>44965</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -45197,7 +45197,7 @@
         <v>44965</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45254,7 +45254,7 @@
         <v>45679</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45316,7 +45316,7 @@
         <v>45965.82398148148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>44679</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>45966.53721064814</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>45336.53908564815</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>45965.81543981482</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45616,7 +45616,7 @@
         <v>45336.54270833333</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>45971.70613425926</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45735,7 +45735,7 @@
         <v>45882.37202546297</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45792,7 +45792,7 @@
         <v>45971.37480324074</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45849,7 +45849,7 @@
         <v>45936.73660879629</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>45691</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45968,7 +45968,7 @@
         <v>45645</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -46030,7 +46030,7 @@
         <v>45972</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -46087,7 +46087,7 @@
         <v>45882.52290509259</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -46144,7 +46144,7 @@
         <v>44614.69730324074</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -46206,7 +46206,7 @@
         <v>45259</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -46263,7 +46263,7 @@
         <v>45840.68518518518</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46320,7 +46320,7 @@
         <v>45975.424375</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46377,7 +46377,7 @@
         <v>45589</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46434,7 +46434,7 @@
         <v>45589</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46491,7 +46491,7 @@
         <v>45695.84078703704</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46553,7 +46553,7 @@
         <v>45975.37621527778</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46615,7 +46615,7 @@
         <v>45975.5341550926</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46672,7 +46672,7 @@
         <v>45695.59197916667</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46734,7 +46734,7 @@
         <v>45478</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46796,7 +46796,7 @@
         <v>45975.59520833333</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46853,7 +46853,7 @@
         <v>45975.65054398148</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46915,7 +46915,7 @@
         <v>45194.63479166666</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46972,7 +46972,7 @@
         <v>45194.60876157408</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -47034,7 +47034,7 @@
         <v>45599</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>45757</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>45600</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>44665</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47272,7 +47272,7 @@
         <v>45345.56</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47329,7 +47329,7 @@
         <v>45981.57793981482</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47386,7 +47386,7 @@
         <v>45981</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47448,7 +47448,7 @@
         <v>45981</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47510,7 +47510,7 @@
         <v>45741.45114583334</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47567,7 +47567,7 @@
         <v>45154.34931712963</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47624,7 +47624,7 @@
         <v>45981.60923611111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47686,7 +47686,7 @@
         <v>45981.58204861111</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47743,7 +47743,7 @@
         <v>45981.61822916667</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47805,7 +47805,7 @@
         <v>45980.4484837963</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47862,7 +47862,7 @@
         <v>45443</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47924,7 +47924,7 @@
         <v>44599.44832175926</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47981,7 +47981,7 @@
         <v>45310</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -48038,7 +48038,7 @@
         <v>45327.61831018519</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -48095,7 +48095,7 @@
         <v>45958.58711805556</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -48157,7 +48157,7 @@
         <v>44435.38657407407</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -48214,7 +48214,7 @@
         <v>45327</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48271,7 +48271,7 @@
         <v>45982</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48328,7 +48328,7 @@
         <v>45983.85069444445</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48385,7 +48385,7 @@
         <v>45729</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48442,7 +48442,7 @@
         <v>45943.53659722222</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48504,7 +48504,7 @@
         <v>45321</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48561,7 +48561,7 @@
         <v>45943.53451388889</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48623,7 +48623,7 @@
         <v>45943.5354050926</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48685,7 +48685,7 @@
         <v>45943.53341435185</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48747,7 +48747,7 @@
         <v>46029.40886574074</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48804,7 +48804,7 @@
         <v>44403.3119212963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48866,7 +48866,7 @@
         <v>44420</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48923,7 +48923,7 @@
         <v>45554</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48980,7 +48980,7 @@
         <v>45988.61304398148</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -49042,7 +49042,7 @@
         <v>46030.56152777778</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -49099,7 +49099,7 @@
         <v>45677</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -49156,7 +49156,7 @@
         <v>45730.43966435185</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -49218,7 +49218,7 @@
         <v>44593</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -49275,7 +49275,7 @@
         <v>45520</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49332,7 +49332,7 @@
         <v>45175.57060185185</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49389,7 +49389,7 @@
         <v>44909.51885416666</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49451,7 +49451,7 @@
         <v>45729</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49508,7 +49508,7 @@
         <v>45729</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49565,7 +49565,7 @@
         <v>45181.36815972222</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49622,7 +49622,7 @@
         <v>45713.44519675926</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49679,7 +49679,7 @@
         <v>44553</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49736,7 +49736,7 @@
         <v>45940</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49793,7 +49793,7 @@
         <v>45992.60832175926</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49850,7 +49850,7 @@
         <v>45992.47825231482</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49907,7 +49907,7 @@
         <v>45190</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49964,7 +49964,7 @@
         <v>44550.37994212963</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -50026,7 +50026,7 @@
         <v>45048.55349537037</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -50083,7 +50083,7 @@
         <v>45107.53688657407</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -50140,7 +50140,7 @@
         <v>44928</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -50202,7 +50202,7 @@
         <v>45061</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -50259,7 +50259,7 @@
         <v>45994.62346064814</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50321,7 +50321,7 @@
         <v>45995.63483796296</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50378,7 +50378,7 @@
         <v>45656</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50440,7 +50440,7 @@
         <v>44977</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50497,7 +50497,7 @@
         <v>45995.31793981481</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>45167.3721412037</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>45468</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50668,7 +50668,7 @@
         <v>44679.66694444444</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50730,7 +50730,7 @@
         <v>45995.31737268518</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50787,7 +50787,7 @@
         <v>45119</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50844,7 +50844,7 @@
         <v>45763.52995370371</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50901,7 +50901,7 @@
         <v>45316</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50963,7 +50963,7 @@
         <v>45614.65928240741</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -51020,7 +51020,7 @@
         <v>44531</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -51077,7 +51077,7 @@
         <v>45581</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -51134,7 +51134,7 @@
         <v>45344.69567129629</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -51196,7 +51196,7 @@
         <v>45694</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -51253,7 +51253,7 @@
         <v>44508.44033564815</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -51315,7 +51315,7 @@
         <v>44644.37548611111</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51377,7 +51377,7 @@
         <v>45426.61569444444</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51434,7 +51434,7 @@
         <v>45987</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51491,7 +51491,7 @@
         <v>46031.63210648148</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51548,7 +51548,7 @@
         <v>45999</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51605,7 +51605,7 @@
         <v>45187.61136574074</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51667,7 +51667,7 @@
         <v>44531</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51724,7 +51724,7 @@
         <v>44400.6750925926</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51786,7 +51786,7 @@
         <v>44532</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51843,7 +51843,7 @@
         <v>44944</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51900,7 +51900,7 @@
         <v>45161</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         <v>45618.71140046296</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -52014,7 +52014,7 @@
         <v>45548.42854166667</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -52071,7 +52071,7 @@
         <v>44742</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -52133,7 +52133,7 @@
         <v>45583.47836805556</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -52195,7 +52195,7 @@
         <v>44519.64902777778</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -52252,7 +52252,7 @@
         <v>45736.60863425926</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -52314,7 +52314,7 @@
         <v>44967</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52371,7 +52371,7 @@
         <v>44568.67040509259</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52433,7 +52433,7 @@
         <v>46045</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52490,7 +52490,7 @@
         <v>45054.9271875</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52547,7 +52547,7 @@
         <v>44859.36896990741</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52604,7 +52604,7 @@
         <v>45693</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52661,7 +52661,7 @@
         <v>44832</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52718,7 +52718,7 @@
         <v>45981</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52775,7 +52775,7 @@
         <v>45601</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52832,7 +52832,7 @@
         <v>46049.58660879629</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52889,7 +52889,7 @@
         <v>45133</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52946,7 +52946,7 @@
         <v>45523</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -53003,7 +53003,7 @@
         <v>46030</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -53065,7 +53065,7 @@
         <v>44645.39157407408</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -53127,7 +53127,7 @@
         <v>45371.50738425926</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -53189,7 +53189,7 @@
         <v>46051.48957175926</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -53246,7 +53246,7 @@
         <v>46051</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53303,7 +53303,7 @@
         <v>44616</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45743.50744212963</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>45042</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>46009.63920138889</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45047.31793981481</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53593,7 +53593,7 @@
         <v>44624.64538194444</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45327</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53712,7 +53712,7 @@
         <v>45050.49392361111</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53769,7 +53769,7 @@
         <v>46055.61907407407</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         <v>46013.55923611111</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53883,7 +53883,7 @@
         <v>46013.57037037037</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53940,7 +53940,7 @@
         <v>45037</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -54002,7 +54002,7 @@
         <v>46013.56292824074</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -54059,7 +54059,7 @@
         <v>46011.70635416666</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -54116,7 +54116,7 @@
         <v>45300</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -54173,7 +54173,7 @@
         <v>44533.46665509259</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -54230,7 +54230,7 @@
         <v>46051.88001157407</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54292,7 +54292,7 @@
         <v>46013.56641203703</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54349,7 +54349,7 @@
         <v>45162</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54411,7 +54411,7 @@
         <v>45154.35092592592</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54468,7 +54468,7 @@
         <v>45693</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54525,7 +54525,7 @@
         <v>45691</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54582,7 +54582,7 @@
         <v>44849</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54639,7 +54639,7 @@
         <v>46055.36872685186</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54701,7 +54701,7 @@
         <v>45677</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54758,7 +54758,7 @@
         <v>45757.6997337963</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54815,7 +54815,7 @@
         <v>45757</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54872,7 +54872,7 @@
         <v>45617.59006944444</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54929,7 +54929,7 @@
         <v>46014.45854166667</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54986,7 +54986,7 @@
         <v>44977</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -55048,7 +55048,7 @@
         <v>46014.35287037037</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -55110,7 +55110,7 @@
         <v>46057.6280787037</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -55167,7 +55167,7 @@
         <v>44993</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -55224,7 +55224,7 @@
         <v>46057.60431712963</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55281,7 +55281,7 @@
         <v>45068.58563657408</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55338,7 +55338,7 @@
         <v>44929</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55395,7 +55395,7 @@
         <v>44847</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55452,7 +55452,7 @@
         <v>45968.76021990741</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55514,7 +55514,7 @@
         <v>45601</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55576,7 +55576,7 @@
         <v>44544</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55633,7 +55633,7 @@
         <v>45159.45748842593</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55690,7 +55690,7 @@
         <v>46059.43493055556</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>46059.4413425926</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55814,7 +55814,7 @@
         <v>45624</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>46059.76059027778</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>46059.76631944445</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55995,7 +55995,7 @@
         <v>45127</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -56052,7 +56052,7 @@
         <v>45216</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -56114,7 +56114,7 @@
         <v>44909</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>45614</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -56233,7 +56233,7 @@
         <v>45145</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56290,7 +56290,7 @@
         <v>44551.76711805556</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56352,7 +56352,7 @@
         <v>45236.47697916667</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56409,7 +56409,7 @@
         <v>45341</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56471,7 +56471,7 @@
         <v>45006</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56528,7 +56528,7 @@
         <v>45202</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56585,7 +56585,7 @@
         <v>45474.41729166666</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56647,7 +56647,7 @@
         <v>44946</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56704,7 +56704,7 @@
         <v>44522</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56761,7 +56761,7 @@
         <v>44593.64863425926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56823,7 +56823,7 @@
         <v>45152</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56885,7 +56885,7 @@
         <v>45299</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56942,7 +56942,7 @@
         <v>44403.29719907408</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -57004,7 +57004,7 @@
         <v>45642</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -57066,7 +57066,7 @@
         <v>45307</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -57123,7 +57123,7 @@
         <v>45351.48662037037</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -57180,7 +57180,7 @@
         <v>45371</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -57242,7 +57242,7 @@
         <v>44358.63490740741</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57299,7 +57299,7 @@
         <v>44908.425625</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57356,7 +57356,7 @@
         <v>45163.59913194444</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57413,7 +57413,7 @@
         <v>45181.58055555556</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         <v>45134.57021990741</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57537,7 +57537,7 @@
         <v>44866</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57594,7 +57594,7 @@
         <v>45152</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57651,7 +57651,7 @@
         <v>45341.63811342593</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57708,7 +57708,7 @@
         <v>45446.78256944445</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57770,7 +57770,7 @@
         <v>45524</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57832,7 +57832,7 @@
         <v>45344</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57894,7 +57894,7 @@
         <v>44817</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57951,7 +57951,7 @@
         <v>44629.42423611111</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -58008,7 +58008,7 @@
         <v>44574</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -58065,7 +58065,7 @@
         <v>45096</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -58122,7 +58122,7 @@
         <v>45580</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -58179,7 +58179,7 @@
         <v>45293</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -58236,7 +58236,7 @@
         <v>45656</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -58298,7 +58298,7 @@
         <v>45757.67611111111</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -58355,7 +58355,7 @@
         <v>44560</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -58412,7 +58412,7 @@
         <v>44446</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -58469,7 +58469,7 @@
         <v>44594</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58526,7 +58526,7 @@
         <v>45552</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58583,7 +58583,7 @@
         <v>45426</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58640,7 +58640,7 @@
         <v>44912.29869212963</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58697,7 +58697,7 @@
         <v>44967.55960648148</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58754,7 +58754,7 @@
         <v>44614.59027777778</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58811,7 +58811,7 @@
         <v>44930</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58868,7 +58868,7 @@
         <v>45098.62966435185</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58925,7 +58925,7 @@
         <v>45756.50738425926</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -58982,7 +58982,7 @@
         <v>45014</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -59039,7 +59039,7 @@
         <v>45175</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -59101,7 +59101,7 @@
         <v>45474</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -59158,7 +59158,7 @@
         <v>45194</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -59220,7 +59220,7 @@
         <v>44819.62</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -59277,7 +59277,7 @@
         <v>45335</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -59339,7 +59339,7 @@
         <v>45341</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -59401,7 +59401,7 @@
         <v>45714.55368055555</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59458,7 +59458,7 @@
         <v>45719.42197916667</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59520,7 +59520,7 @@
         <v>45719.43646990741</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59582,7 +59582,7 @@
         <v>44914.67600694444</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59639,7 +59639,7 @@
         <v>44984.69216435185</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59701,7 +59701,7 @@
         <v>44379.5745949074</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59758,7 +59758,7 @@
         <v>45524</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59820,7 +59820,7 @@
         <v>44623.5571875</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59882,7 +59882,7 @@
         <v>44960</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59939,7 +59939,7 @@
         <v>44960.66233796296</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -59996,7 +59996,7 @@
         <v>44532</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -60053,7 +60053,7 @@
         <v>44820.47935185185</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -60115,7 +60115,7 @@
         <v>45352</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -60172,7 +60172,7 @@
         <v>45181.33571759259</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -60229,7 +60229,7 @@
         <v>45358</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -60286,7 +60286,7 @@
         <v>44894.57065972222</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -60348,7 +60348,7 @@
         <v>44378.56137731481</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -60405,7 +60405,7 @@
         <v>44944</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60462,7 +60462,7 @@
         <v>44504</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60519,7 +60519,7 @@
         <v>45225.46480324074</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60576,7 +60576,7 @@
         <v>45254</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60633,7 +60633,7 @@
         <v>44603</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60690,7 +60690,7 @@
         <v>45513.51815972223</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60752,7 +60752,7 @@
         <v>44848</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60809,7 +60809,7 @@
         <v>44438</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60871,7 +60871,7 @@
         <v>45693</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60928,7 +60928,7 @@
         <v>45379</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60985,7 +60985,7 @@
         <v>45323.55914351852</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -61047,7 +61047,7 @@
         <v>44588</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -61104,7 +61104,7 @@
         <v>44883</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -61166,7 +61166,7 @@
         <v>45693</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -61223,7 +61223,7 @@
         <v>44553</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -61280,7 +61280,7 @@
         <v>45770.61341435185</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -61342,7 +61342,7 @@
         <v>45096</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61399,7 +61399,7 @@
         <v>45148</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61456,7 +61456,7 @@
         <v>44980</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61513,7 +61513,7 @@
         <v>45104.6828125</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61570,7 +61570,7 @@
         <v>45478.60802083334</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61632,7 +61632,7 @@
         <v>45096</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61689,7 +61689,7 @@
         <v>44977</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         <v>45231.54601851852</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -61803,7 +61803,7 @@
         <v>44609.60171296296</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -61865,7 +61865,7 @@
         <v>45761.47540509259</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61922,7 +61922,7 @@
         <v>45761.47748842592</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61979,7 +61979,7 @@
         <v>45173</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -62036,7 +62036,7 @@
         <v>45699.71063657408</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -62093,7 +62093,7 @@
         <v>44888</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         <v>45110</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -62212,7 +62212,7 @@
         <v>45594</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -62274,7 +62274,7 @@
         <v>44623.41775462963</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -62336,7 +62336,7 @@
         <v>45644.47723379629</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -62393,7 +62393,7 @@
         <v>45075.51982638889</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -62450,7 +62450,7 @@
         <v>45614.67020833334</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -62507,7 +62507,7 @@
         <v>45148</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -62564,7 +62564,7 @@
         <v>45148</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -62621,7 +62621,7 @@
         <v>45182</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -62678,7 +62678,7 @@
         <v>45266</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -62735,7 +62735,7 @@
         <v>45646.61892361111</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -62792,7 +62792,7 @@
         <v>45089</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -62849,7 +62849,7 @@
         <v>44652</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62906,7 +62906,7 @@
         <v>45583</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62968,7 +62968,7 @@
         <v>45583</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -63030,7 +63030,7 @@
         <v>45699</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -63087,7 +63087,7 @@
         <v>45131</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -63144,7 +63144,7 @@
         <v>45694</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -63201,7 +63201,7 @@
         <v>44624.35083333333</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -63263,7 +63263,7 @@
         <v>45685.5778125</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -63320,7 +63320,7 @@
         <v>45097</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -63377,7 +63377,7 @@
         <v>45435.34778935185</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -63439,7 +63439,7 @@
         <v>44897</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -63496,7 +63496,7 @@
         <v>45317</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -63553,7 +63553,7 @@
         <v>45180.40255787037</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -63615,7 +63615,7 @@
         <v>45611</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -63672,7 +63672,7 @@
         <v>45049.66025462963</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -63729,7 +63729,7 @@
         <v>45159.44694444445</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -63786,7 +63786,7 @@
         <v>45254.49552083333</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -63843,7 +63843,7 @@
         <v>45344.64759259259</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63905,7 +63905,7 @@
         <v>45769.6009375</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63962,7 +63962,7 @@
         <v>45762.61341435185</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -64019,7 +64019,7 @@
         <v>44610</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -64081,7 +64081,7 @@
         <v>45453</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -64138,7 +64138,7 @@
         <v>45638</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -64195,7 +64195,7 @@
         <v>45776.6415162037</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -64257,7 +64257,7 @@
         <v>45520</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -64314,7 +64314,7 @@
         <v>45777.37119212963</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -64376,7 +64376,7 @@
         <v>45777</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -64433,7 +64433,7 @@
         <v>45107.55574074074</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -64490,7 +64490,7 @@
         <v>45776.45263888889</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -64552,7 +64552,7 @@
         <v>45777.52655092593</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -64609,7 +64609,7 @@
         <v>45777.34894675926</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -64671,7 +64671,7 @@
         <v>45574</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -64728,7 +64728,7 @@
         <v>45776.48275462963</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -64790,7 +64790,7 @@
         <v>45776</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -64847,7 +64847,7 @@
         <v>45777.32731481481</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64909,7 +64909,7 @@
         <v>45779.49085648148</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64971,7 +64971,7 @@
         <v>45779.6665162037</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -65033,7 +65033,7 @@
         <v>45779.65787037037</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -65095,7 +65095,7 @@
         <v>45783.61053240741</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -65152,7 +65152,7 @@
         <v>45784.80497685185</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -65209,7 +65209,7 @@
         <v>45784.57266203704</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -65271,7 +65271,7 @@
         <v>45558.42498842593</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -65328,7 +65328,7 @@
         <v>44569.69358796296</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -65390,7 +65390,7 @@
         <v>45254</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -65447,7 +65447,7 @@
         <v>45368.64787037037</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -65509,7 +65509,7 @@
         <v>45584.60038194444</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -65566,7 +65566,7 @@
         <v>45091</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -65628,7 +65628,7 @@
         <v>45371.67368055556</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -65685,7 +65685,7 @@
         <v>45684</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -65742,7 +65742,7 @@
         <v>45407.49721064815</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -65799,7 +65799,7 @@
         <v>45562</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -65856,7 +65856,7 @@
         <v>45177.79766203704</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65918,7 +65918,7 @@
         <v>45625.58501157408</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -65980,7 +65980,7 @@
         <v>45329</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -66037,7 +66037,7 @@
         <v>44569.49344907407</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -66099,7 +66099,7 @@
         <v>45583.48449074074</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -66161,7 +66161,7 @@
         <v>45790.44972222222</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -66218,7 +66218,7 @@
         <v>45726</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -66275,7 +66275,7 @@
         <v>45790.51040509259</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -66332,7 +66332,7 @@
         <v>45490</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -66389,7 +66389,7 @@
         <v>45195.64807870371</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -66446,7 +66446,7 @@
         <v>45439</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -66508,7 +66508,7 @@
         <v>45335.66331018518</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -66570,7 +66570,7 @@
         <v>45636</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -66627,7 +66627,7 @@
         <v>45797.42777777778</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -66684,7 +66684,7 @@
         <v>44277.65650462963</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -66741,7 +66741,7 @@
         <v>45797.45900462963</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -66803,7 +66803,7 @@
         <v>45525</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -66860,7 +66860,7 @@
         <v>45429</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -575,7 +575,7 @@
         <v>45882.73309027778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>45603</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45901</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>45827.64737268518</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44377</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>45313</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>45882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>45715.38824074074</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45728</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45082</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>46009.57934027778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>45915</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>45803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>44532</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         <v>46063</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>44971</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44623</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45803</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>46009.5597337963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>45202</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         <v>45086</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2974,7 +2974,7 @@
         <v>44575</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         <v>45936</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>46003.65950231482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
         <v>44356</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45758</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>45196</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>45803.55535879629</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44497</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>45442</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>45092</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>44792</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>46045</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>46055.35829861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45989.96633101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>45841.64539351852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>45841.80690972223</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>45974.6671412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45985</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>45985</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>44500</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44762</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45316</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>45736.53695601852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45097</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         <v>45107</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>45917.43857638889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
         <v>45961.38690972222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>45961.37217592593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>44574</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>44351</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>45442</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>44719</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>44664</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>45905.62541666667</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45905.62641203704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>44740</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>45952.39770833333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>44659</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>46037.42877314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>46003.66043981481</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>44974</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44791</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>45831.55982638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44495</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45910.59475694445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45910.59415509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45922.80255787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44684</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>45035.44672453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>45972.64483796297</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>45336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44804</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>45989.96568287037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>45090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44967</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>45762.62260416667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>45715.38105324074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>45694.55559027778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>45903</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8711,7 +8711,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>45841.81555555556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>45189</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>45960.43780092592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45981</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9167,7 +9167,7 @@
         <v>45954.49768518518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>46009.59555555556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>45168.50667824074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45985</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>45293</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45803.61554398148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44614</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44379</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44487</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>45358</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45107</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>45665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>45694.49650462963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>45817.34614583333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>45818.60254629629</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>45736.49902777778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45825.49060185185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>44917</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>44855</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11039,7 +11039,7 @@
         <v>45896.47487268518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>45901.66702546296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44958</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45464</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45916.48704861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>44467</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>45853.76976851852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>45805.41232638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>45167</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44909</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>45950</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44897</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44849</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>45874</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45385</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44645</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>46001.44021990741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12611,7 +12611,7 @@
         <v>46009</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         <v>45874.69282407407</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         <v>45314.55579861111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44831</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44673.47858796296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45442</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45762.57244212963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         <v>45107</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>45273</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>45757.49934027778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44917.59298611111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>45783</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45687</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>45811.38710648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13841,7 +13841,7 @@
         <v>45098</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>45679</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45817</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44583.61803240741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44517</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44567.81241898148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>44407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>44602</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44602</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>44544</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>44526</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>44489</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14638,7 +14638,7 @@
         <v>44609.61430555556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14695,7 +14695,7 @@
         <v>44299</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>44323.58961805556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>44714</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44491.50769675926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44252</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>44569.5340625</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44486</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44662.56783564815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
         <v>44659.70381944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44572.39640046296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44603</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44494</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44700</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>44839</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>44784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44369.65428240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>44612</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         <v>44720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         <v>44886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>44598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>44883.56321759259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>44314</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>44610</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>44865.43494212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44742</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>44704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>44533.4678587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>44764</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>44297</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>44349.49666666667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44351</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44584.63190972222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>44490.64313657407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>44281.4499537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>44610</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>44335.52201388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>44512</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>44740.68142361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>44816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>44297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>44722.30703703704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44705.78475694444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>44705.83326388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>44692.87630787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>44543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44383</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44378.69857638889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44750.45800925926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
         <v>44643.51446759259</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17846,7 +17846,7 @@
         <v>44504.59193287037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44446.47693287037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44676</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44491.54116898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>44847.35622685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>44476.61263888889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18255,7 +18255,7 @@
         <v>44705.84535879629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18312,7 +18312,7 @@
         <v>44799.36359953704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18369,7 +18369,7 @@
         <v>44575</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18426,7 +18426,7 @@
         <v>44575.4366087963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44369</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44328.57100694445</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44702.70721064815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44442.35195601852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44442</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>44551.59704861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>44571.44563657408</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>44838.40635416667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>44459</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19006,7 +19006,7 @@
         <v>44517</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>44634</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44886.58890046296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>44698.67151620371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>44277.65263888889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>44599.43265046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>44865</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>44461.73350694445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>44593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44479</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>44489</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>44495</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>44543.34697916666</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>44522.55518518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>44649</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>44750.678125</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19985,7 +19985,7 @@
         <v>44685.6212037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>44733.43420138889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20109,7 +20109,7 @@
         <v>44711</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>44743</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>44623.4572337963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44729</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44266.57917824074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44294.37555555555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20471,7 +20471,7 @@
         <v>44791.38336805555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20533,7 +20533,7 @@
         <v>44659.57912037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>44623</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20657,7 +20657,7 @@
         <v>44798</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20714,7 +20714,7 @@
         <v>44659</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44593.61355324074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         <v>45358</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>45293</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>45223</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>45091.69766203704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21133,7 +21133,7 @@
         <v>44581.60254629629</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21195,7 +21195,7 @@
         <v>45678</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21252,7 +21252,7 @@
         <v>44599.42277777778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21309,7 +21309,7 @@
         <v>45695.8391550926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44637.35744212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45615</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44637.56178240741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44893</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45695.59805555556</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>44967.78984953704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45294.5666550926</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>45756.44024305556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44608</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44993</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44816</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>45694.49037037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>45351.54596064815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22194,7 +22194,7 @@
         <v>44900.54711805555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22251,7 +22251,7 @@
         <v>44872</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44379.56163194445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>45212.34997685185</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44969</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44532</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>45033</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44944</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>45093.46706018518</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44980</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>45552</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45244.52202546296</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>45691</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22945,7 +22945,7 @@
         <v>45231</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         <v>45169</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23064,7 +23064,7 @@
         <v>44960</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23121,7 +23121,7 @@
         <v>45216</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23178,7 +23178,7 @@
         <v>45583</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23240,7 +23240,7 @@
         <v>45295</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
         <v>45425.94947916667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23359,7 +23359,7 @@
         <v>45369</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23416,7 +23416,7 @@
         <v>45733.63099537037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23473,7 +23473,7 @@
         <v>45363.54878472222</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>44809.92752314815</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>45638</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>44617.48311342593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>45300.55028935185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>45107</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>45107</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>44949.4708912037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>45327</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>45149.56928240741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24053,7 +24053,7 @@
         <v>44594</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24110,7 +24110,7 @@
         <v>44395</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>44548</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>45078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24286,7 +24286,7 @@
         <v>45721.60894675926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44616</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>45182</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>45555.5727662037</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>45719.40723379629</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>45644</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>45644</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44273</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>45055</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24804,7 +24804,7 @@
         <v>45646.50211805556</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24861,7 +24861,7 @@
         <v>44912</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
         <v>45407.69575231482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24975,7 +24975,7 @@
         <v>45307</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25032,7 +25032,7 @@
         <v>45719.43755787037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45611</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44904</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>45182</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45818.57910879629</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25446,7 +25446,7 @@
         <v>45817</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44426</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>44819.50233796296</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25627,7 +25627,7 @@
         <v>45726</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25684,7 +25684,7 @@
         <v>45664</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         <v>44593</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45884</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>45839</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>44600</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>45456.59535879629</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>45694</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26098,7 +26098,7 @@
         <v>44806</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>45338.49412037037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26212,7 +26212,7 @@
         <v>45820</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26269,7 +26269,7 @@
         <v>45236</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         <v>45820</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>45820</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26440,7 +26440,7 @@
         <v>45821.44101851852</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26497,7 +26497,7 @@
         <v>44883</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26554,7 +26554,7 @@
         <v>44799.36695601852</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26611,7 +26611,7 @@
         <v>45824.43798611111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26673,7 +26673,7 @@
         <v>45825.44482638889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>45821.45905092593</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>45202.4997337963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>44602</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45891.4865625</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45891.46827546296</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45164.82913194445</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>45891.33204861111</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45827.64092592592</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45827.46288194445</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45890</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>45208.4350462963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45065.43013888889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>45426.34148148148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>45827.62096064815</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45831.40671296296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>44371.49178240741</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45723</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45699</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45831.72686342592</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27843,7 +27843,7 @@
         <v>44967.80034722222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>44967</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>45831.73</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>45831.42616898148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45896.57368055556</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45896</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
         <v>45896.57171296296</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>45896</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>45832.35545138889</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45897</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45832.35590277778</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45631.44464120371</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45896.61050925926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>45901.41756944444</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>44503</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45000.44666666666</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44966</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45188</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>45901.41853009259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28961,7 +28961,7 @@
         <v>45177.56940972222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29018,7 +29018,7 @@
         <v>44560</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>45036</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45677.39440972222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45903</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>45835.62752314815</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>45021.29524305555</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>44699</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>45903.69096064815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
         <v>45903.69358796296</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29556,7 +29556,7 @@
         <v>45902.42243055555</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>45821.31292824074</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>45905.5756712963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>45188.42052083334</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>45721.35173611111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44886</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>45839</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>45799.53348379629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>45809</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44516</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>45904.77746527778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>45729</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30255,7 +30255,7 @@
         <v>45300.55680555556</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30312,7 +30312,7 @@
         <v>45839</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>45905.64862268518</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30446,7 +30446,7 @@
         <v>45809</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>45904</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30565,7 +30565,7 @@
         <v>45208.46130787037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30622,7 +30622,7 @@
         <v>45720.60410879629</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>45173</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30736,7 +30736,7 @@
         <v>45841.5847337963</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30793,7 +30793,7 @@
         <v>45840</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30850,7 +30850,7 @@
         <v>45909.57565972222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>45194</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>45231</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44886.5928125</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>45520</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>45201.62318287037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>45842.74049768518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>45152</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31321,7 +31321,7 @@
         <v>45679</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44810</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>45763.52744212963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>45845.53202546296</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>45912.7097337963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>45915.64064814815</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>45913.39467592593</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>45121</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         <v>45614</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31854,7 +31854,7 @@
         <v>45729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>45637</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31973,7 +31973,7 @@
         <v>45831.42365740741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>45916</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32087,7 +32087,7 @@
         <v>45849.49259259259</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32144,7 +32144,7 @@
         <v>45391.37361111111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32201,7 +32201,7 @@
         <v>45644.62677083333</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32258,7 +32258,7 @@
         <v>45852.39642361111</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45426</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45852.72965277778</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32434,7 +32434,7 @@
         <v>45852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32496,7 +32496,7 @@
         <v>45851.62018518519</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32558,7 +32558,7 @@
         <v>44832.49594907407</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>45852.68978009259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45852.67366898148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>45852.36871527778</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>45851.60097222222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45317</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45254</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45918.37322916667</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45763</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33086,7 +33086,7 @@
         <v>45854.44017361111</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45856.34034722222</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45856.34231481481</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>44935</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45922</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45856.34959490741</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45856</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33567,7 +33567,7 @@
         <v>45922</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33624,7 +33624,7 @@
         <v>45838</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>45923.70230324074</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>45922.46763888889</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>45922.42865740741</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>45216.39040509259</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>45923.70146990741</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45838</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>45695.83655092592</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45863.44648148148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45922.48148148148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34229,7 +34229,7 @@
         <v>45863.45355324074</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34286,7 +34286,7 @@
         <v>45638</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>45349</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34400,7 +34400,7 @@
         <v>45867.58056712963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34457,7 +34457,7 @@
         <v>44678.3315625</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34519,7 +34519,7 @@
         <v>44501.71344907407</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44588</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45231.62840277778</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>45926.63232638889</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>45926.45846064815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>45705</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>45259.52809027778</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>45614</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35052,7 +35052,7 @@
         <v>45926.366875</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35114,7 +35114,7 @@
         <v>45926.63290509259</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35176,7 +35176,7 @@
         <v>45929.69553240741</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35238,7 +35238,7 @@
         <v>45929.6965162037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35300,7 +35300,7 @@
         <v>45929.53203703704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35362,7 +35362,7 @@
         <v>45926.63366898148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35424,7 +35424,7 @@
         <v>45642</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>45390</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>45926.35917824074</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45926.35998842592</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         <v>45190</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35724,7 +35724,7 @@
         <v>45931.37796296296</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45931.52792824074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45054.95675925926</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35905,7 +35905,7 @@
         <v>45831.46731481481</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44575</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44994</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>45930.55024305556</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44679.68706018518</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>45931.37734953704</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>45931.59373842592</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45931.59091435185</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>45643</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45838</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45182</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36552,7 +36552,7 @@
         <v>45874</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36609,7 +36609,7 @@
         <v>44733</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36666,7 +36666,7 @@
         <v>45932.37375</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36723,7 +36723,7 @@
         <v>45874.705</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36780,7 +36780,7 @@
         <v>45932.62907407407</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
         <v>45877.62969907407</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36899,7 +36899,7 @@
         <v>45932.59373842592</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36961,7 +36961,7 @@
         <v>45932.61177083333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37023,7 +37023,7 @@
         <v>45876</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37080,7 +37080,7 @@
         <v>45719.4094212963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>45719.43872685185</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>45851.62179398148</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         <v>45049</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37323,7 +37323,7 @@
         <v>45202</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37385,7 +37385,7 @@
         <v>45876</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         <v>45259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>45877.57847222222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>45880.34064814815</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>45624</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>45880</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>45880.68200231482</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>45881.44938657407</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>45880.32907407408</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>45934.55967592593</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37965,7 +37965,7 @@
         <v>45881.45898148148</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38022,7 +38022,7 @@
         <v>45679</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38084,7 +38084,7 @@
         <v>45938.35063657408</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         <v>45882.37202546297</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>44328</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>45937.68865740741</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38322,7 +38322,7 @@
         <v>45691</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38384,7 +38384,7 @@
         <v>45882.52290509259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38441,7 +38441,7 @@
         <v>45267</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38503,7 +38503,7 @@
         <v>45938.3615625</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>45751.32001157408</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>45939.32621527778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38679,7 +38679,7 @@
         <v>45758</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38736,7 +38736,7 @@
         <v>45937</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38793,7 +38793,7 @@
         <v>45937</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38850,7 +38850,7 @@
         <v>45763</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>45638</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>45942.79476851852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         <v>45942.8396412037</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45942.80318287037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39145,7 +39145,7 @@
         <v>45940.67084490741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>45940.67305555556</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         <v>45113.80170138889</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39316,7 +39316,7 @@
         <v>45943.70756944444</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39378,7 +39378,7 @@
         <v>45940.45038194444</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39440,7 +39440,7 @@
         <v>45942.84414351852</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39497,7 +39497,7 @@
         <v>45942.80185185185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39559,7 +39559,7 @@
         <v>44964.65261574074</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39616,7 +39616,7 @@
         <v>45944</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>45670</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39735,7 +39735,7 @@
         <v>45898.46040509259</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>45113</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39849,7 +39849,7 @@
         <v>45757</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         <v>45946.64121527778</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44788</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>45098.63572916666</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>45670</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>45947.58105324074</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>45946.76038194444</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>45946.30063657407</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>45946.31299768519</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40377,7 +40377,7 @@
         <v>45946.75140046296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40434,7 +40434,7 @@
         <v>45361.57299768519</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40496,7 +40496,7 @@
         <v>45456.58491898148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>45947.4724537037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40615,7 +40615,7 @@
         <v>45950.55603009259</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40677,7 +40677,7 @@
         <v>45259</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>45460</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>45642.63524305556</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>45763.6503125</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40910,7 +40910,7 @@
         <v>45950</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40967,7 +40967,7 @@
         <v>45950</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41024,7 +41024,7 @@
         <v>45949</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>45953.53460648148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41138,7 +41138,7 @@
         <v>44816</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41195,7 +41195,7 @@
         <v>45308.63298611111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41252,7 +41252,7 @@
         <v>45107</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41309,7 +41309,7 @@
         <v>44535</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41366,7 +41366,7 @@
         <v>44629.57741898148</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41428,7 +41428,7 @@
         <v>44608</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>45707</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45953.53765046296</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>45644</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>45954.38475694445</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44497.4666087963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44946.43564814814</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41837,7 +41837,7 @@
         <v>45957</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41894,7 +41894,7 @@
         <v>45957.66506944445</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41951,7 +41951,7 @@
         <v>44965</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42008,7 +42008,7 @@
         <v>44965</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42065,7 +42065,7 @@
         <v>44679</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42122,7 +42122,7 @@
         <v>45336.53908564815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>45954.528125</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45336.54270833333</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45954.51438657408</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>45958.60826388889</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42412,7 +42412,7 @@
         <v>45958.62303240741</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42474,7 +42474,7 @@
         <v>45959.35965277778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42536,7 +42536,7 @@
         <v>45958.62765046296</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>45958.62983796297</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42660,7 +42660,7 @@
         <v>45958.37273148148</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42717,7 +42717,7 @@
         <v>45957.95233796296</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42774,7 +42774,7 @@
         <v>45958.49162037037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45959.60851851852</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42898,7 +42898,7 @@
         <v>45958.61577546296</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42960,7 +42960,7 @@
         <v>45958.63368055555</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -43022,7 +43022,7 @@
         <v>45645</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45958.64146990741</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -43146,7 +43146,7 @@
         <v>45958.6516087963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43208,7 +43208,7 @@
         <v>44614.69730324074</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43270,7 +43270,7 @@
         <v>45259</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43327,7 +43327,7 @@
         <v>45960.43065972222</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43384,7 +43384,7 @@
         <v>45589</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43441,7 +43441,7 @@
         <v>45589</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43498,7 +43498,7 @@
         <v>45961.40716435185</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43555,7 +43555,7 @@
         <v>45695.84078703704</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43617,7 +43617,7 @@
         <v>45961.41853009259</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43674,7 +43674,7 @@
         <v>45959.36146990741</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45695.59197916667</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43798,7 +43798,7 @@
         <v>45965</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43860,7 +43860,7 @@
         <v>45478</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45964.76486111111</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45194.63479166666</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         <v>45194.60876157408</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -44098,7 +44098,7 @@
         <v>45599</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>45600</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -44217,7 +44217,7 @@
         <v>45965.61792824074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44274,7 +44274,7 @@
         <v>44665</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44336,7 +44336,7 @@
         <v>45345.56</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44393,7 +44393,7 @@
         <v>45966.53849537037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44455,7 +44455,7 @@
         <v>45965.82398148148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>45966.53721064814</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44579,7 +44579,7 @@
         <v>45965.81543981482</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44641,7 +44641,7 @@
         <v>45741.45114583334</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44698,7 +44698,7 @@
         <v>45154.34931712963</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44755,7 +44755,7 @@
         <v>45971.70613425926</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44817,7 +44817,7 @@
         <v>45443</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44879,7 +44879,7 @@
         <v>44599.44832175926</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44936,7 +44936,7 @@
         <v>45310</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44993,7 +44993,7 @@
         <v>45327.61831018519</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -45050,7 +45050,7 @@
         <v>45971.37480324074</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -45107,7 +45107,7 @@
         <v>44435.38657407407</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -45164,7 +45164,7 @@
         <v>45936.73660879629</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -45221,7 +45221,7 @@
         <v>45972</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45278,7 +45278,7 @@
         <v>45327</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45335,7 +45335,7 @@
         <v>45840.68518518518</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45392,7 +45392,7 @@
         <v>45975.424375</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45449,7 +45449,7 @@
         <v>45729</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45506,7 +45506,7 @@
         <v>45975.37621527778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45568,7 +45568,7 @@
         <v>45975.5341550926</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45625,7 +45625,7 @@
         <v>45975.59520833333</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45682,7 +45682,7 @@
         <v>45975.65054398148</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45744,7 +45744,7 @@
         <v>45321</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45801,7 +45801,7 @@
         <v>44403.3119212963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45863,7 +45863,7 @@
         <v>44420</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45920,7 +45920,7 @@
         <v>45981.57793981482</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45977,7 +45977,7 @@
         <v>45554</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -46034,7 +46034,7 @@
         <v>45981</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -46096,7 +46096,7 @@
         <v>45981</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>45981.60923611111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -46220,7 +46220,7 @@
         <v>45981.58204861111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -46277,7 +46277,7 @@
         <v>45981.61822916667</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46339,7 +46339,7 @@
         <v>45980.4484837963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46396,7 +46396,7 @@
         <v>45677</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46453,7 +46453,7 @@
         <v>45730.43966435185</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46515,7 +46515,7 @@
         <v>45958.58711805556</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46577,7 +46577,7 @@
         <v>44593</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46634,7 +46634,7 @@
         <v>45520</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46691,7 +46691,7 @@
         <v>45175.57060185185</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46748,7 +46748,7 @@
         <v>44909.51885416666</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46810,7 +46810,7 @@
         <v>45729</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46867,7 +46867,7 @@
         <v>45729</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46924,7 +46924,7 @@
         <v>45181.36815972222</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46981,7 +46981,7 @@
         <v>45982</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -47038,7 +47038,7 @@
         <v>45713.44519675926</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -47095,7 +47095,7 @@
         <v>45983.85069444445</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -47152,7 +47152,7 @@
         <v>44553</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>45943.53659722222</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>45190</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>44550.37994212963</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47390,7 +47390,7 @@
         <v>45943.53451388889</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47452,7 +47452,7 @@
         <v>45943.5354050926</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47514,7 +47514,7 @@
         <v>45943.53341435185</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47576,7 +47576,7 @@
         <v>45048.55349537037</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45988.61304398148</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45107.53688657407</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47752,7 +47752,7 @@
         <v>44928</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>45061</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>45656</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47933,7 +47933,7 @@
         <v>44977</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47990,7 +47990,7 @@
         <v>45940</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -48047,7 +48047,7 @@
         <v>45167.3721412037</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -48104,7 +48104,7 @@
         <v>45992.60832175926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -48161,7 +48161,7 @@
         <v>45468</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -48218,7 +48218,7 @@
         <v>44679.66694444444</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48280,7 +48280,7 @@
         <v>45119</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48337,7 +48337,7 @@
         <v>45763.52995370371</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48394,7 +48394,7 @@
         <v>45992.47825231482</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48451,7 +48451,7 @@
         <v>45316</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48513,7 +48513,7 @@
         <v>45614.65928240741</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48570,7 +48570,7 @@
         <v>44531</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48627,7 +48627,7 @@
         <v>45344.69567129629</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48689,7 +48689,7 @@
         <v>45694</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48746,7 +48746,7 @@
         <v>45994.62346064814</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48808,7 +48808,7 @@
         <v>45995.63483796296</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48865,7 +48865,7 @@
         <v>45995.31793981481</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -48922,7 +48922,7 @@
         <v>44508.44033564815</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48984,7 +48984,7 @@
         <v>45995.31737268518</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -49041,7 +49041,7 @@
         <v>44644.37548611111</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -49103,7 +49103,7 @@
         <v>45426.61569444444</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -49160,7 +49160,7 @@
         <v>45581</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -49217,7 +49217,7 @@
         <v>45187.61136574074</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -49279,7 +49279,7 @@
         <v>44531</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49336,7 +49336,7 @@
         <v>44400.6750925926</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49398,7 +49398,7 @@
         <v>44532</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49455,7 +49455,7 @@
         <v>45987</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49512,7 +49512,7 @@
         <v>45999</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49569,7 +49569,7 @@
         <v>44944</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49626,7 +49626,7 @@
         <v>45161</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49683,7 +49683,7 @@
         <v>45618.71140046296</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49740,7 +49740,7 @@
         <v>45548.42854166667</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         <v>44742</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45583.47836805556</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -49921,7 +49921,7 @@
         <v>44519.64902777778</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45736.60863425926</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -50040,7 +50040,7 @@
         <v>44967</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -50097,7 +50097,7 @@
         <v>44568.67040509259</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -50159,7 +50159,7 @@
         <v>45054.9271875</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -50216,7 +50216,7 @@
         <v>44859.36896990741</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45693</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>44832</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50387,7 +50387,7 @@
         <v>45601</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50444,7 +50444,7 @@
         <v>45133</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50501,7 +50501,7 @@
         <v>46045</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50558,7 +50558,7 @@
         <v>45523</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50615,7 +50615,7 @@
         <v>44645.39157407408</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50677,7 +50677,7 @@
         <v>45371.50738425926</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50739,7 +50739,7 @@
         <v>44616</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50801,7 +50801,7 @@
         <v>45743.50744212963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50858,7 +50858,7 @@
         <v>45042</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50915,7 +50915,7 @@
         <v>45981</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50972,7 +50972,7 @@
         <v>45047.31793981481</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -51029,7 +51029,7 @@
         <v>44624.64538194444</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -51091,7 +51091,7 @@
         <v>46049.58660879629</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -51148,7 +51148,7 @@
         <v>46051.48957175926</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -51205,7 +51205,7 @@
         <v>46051</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -51262,7 +51262,7 @@
         <v>45327</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -51319,7 +51319,7 @@
         <v>45050.49392361111</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51376,7 +51376,7 @@
         <v>45037</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51438,7 +51438,7 @@
         <v>46009.63920138889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51495,7 +51495,7 @@
         <v>45300</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51552,7 +51552,7 @@
         <v>44533.46665509259</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51609,7 +51609,7 @@
         <v>45162</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>45154.35092592592</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51728,7 +51728,7 @@
         <v>45693</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51785,7 +51785,7 @@
         <v>46055.61907407407</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>46013.55923611111</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51899,7 +51899,7 @@
         <v>46013.57037037037</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -51956,7 +51956,7 @@
         <v>45691</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -52013,7 +52013,7 @@
         <v>44849</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -52070,7 +52070,7 @@
         <v>45677</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -52127,7 +52127,7 @@
         <v>45757.6997337963</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -52184,7 +52184,7 @@
         <v>45757</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -52241,7 +52241,7 @@
         <v>46013.56292824074</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -52298,7 +52298,7 @@
         <v>45617.59006944444</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52355,7 +52355,7 @@
         <v>46011.70635416666</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52412,7 +52412,7 @@
         <v>44977</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52474,7 +52474,7 @@
         <v>46051.88001157407</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>46013.56641203703</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52593,7 +52593,7 @@
         <v>46055.36872685186</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52655,7 +52655,7 @@
         <v>44993</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>46014.45854166667</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>45068.58563657408</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>44929</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52883,7 +52883,7 @@
         <v>46014.35287037037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -52945,7 +52945,7 @@
         <v>46057.6280787037</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -53002,7 +53002,7 @@
         <v>44847</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -53059,7 +53059,7 @@
         <v>46057.60431712963</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -53116,7 +53116,7 @@
         <v>45601</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -53178,7 +53178,7 @@
         <v>44544</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -53235,7 +53235,7 @@
         <v>45159.45748842593</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53292,7 +53292,7 @@
         <v>45624</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53349,7 +53349,7 @@
         <v>46059.43493055556</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53411,7 +53411,7 @@
         <v>46059.4413425926</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53473,7 +53473,7 @@
         <v>46059.76059027778</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53535,7 +53535,7 @@
         <v>46059.76631944445</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53597,7 +53597,7 @@
         <v>45127</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53654,7 +53654,7 @@
         <v>45216</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53716,7 +53716,7 @@
         <v>46062.53357638889</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53773,7 +53773,7 @@
         <v>44909</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53830,7 +53830,7 @@
         <v>46062.73936342593</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -53892,7 +53892,7 @@
         <v>46062.74180555555</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -53954,7 +53954,7 @@
         <v>45614</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -54016,7 +54016,7 @@
         <v>45968.76021990741</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -54078,7 +54078,7 @@
         <v>45145</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -54135,7 +54135,7 @@
         <v>46062.73762731482</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -54197,7 +54197,7 @@
         <v>44551.76711805556</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -54259,7 +54259,7 @@
         <v>45236.47697916667</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54316,7 +54316,7 @@
         <v>46065.50152777778</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54373,7 +54373,7 @@
         <v>46064</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54430,7 +54430,7 @@
         <v>46064.78336805556</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54487,7 +54487,7 @@
         <v>45341</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         <v>46065.72112268519</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54606,7 +54606,7 @@
         <v>46065.49472222223</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54663,7 +54663,7 @@
         <v>45006</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54720,7 +54720,7 @@
         <v>45202</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54777,7 +54777,7 @@
         <v>45474.41729166666</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54839,7 +54839,7 @@
         <v>44946</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -54896,7 +54896,7 @@
         <v>44522</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -54953,7 +54953,7 @@
         <v>46069.57407407407</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -55015,7 +55015,7 @@
         <v>44593.64863425926</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -55077,7 +55077,7 @@
         <v>45152</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -55139,7 +55139,7 @@
         <v>45299</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -55196,7 +55196,7 @@
         <v>44403.29719907408</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -55258,7 +55258,7 @@
         <v>45642</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55320,7 +55320,7 @@
         <v>45307</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55377,7 +55377,7 @@
         <v>45351.48662037037</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55434,7 +55434,7 @@
         <v>45371</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55496,7 +55496,7 @@
         <v>44358.63490740741</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55553,7 +55553,7 @@
         <v>44908.425625</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55610,7 +55610,7 @@
         <v>45163.59913194444</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55667,7 +55667,7 @@
         <v>45181.58055555556</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55729,7 +55729,7 @@
         <v>46029.40886574074</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55786,7 +55786,7 @@
         <v>45134.57021990741</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55848,7 +55848,7 @@
         <v>44866</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55905,7 +55905,7 @@
         <v>45152</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -55962,7 +55962,7 @@
         <v>46030.56152777778</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -56019,7 +56019,7 @@
         <v>45341.63811342593</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -56076,7 +56076,7 @@
         <v>45446.78256944445</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -56138,7 +56138,7 @@
         <v>46031.63210648148</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -56195,7 +56195,7 @@
         <v>45524</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -56257,7 +56257,7 @@
         <v>46030</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56319,7 +56319,7 @@
         <v>45344</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56381,7 +56381,7 @@
         <v>44817</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56438,7 +56438,7 @@
         <v>44629.42423611111</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56495,7 +56495,7 @@
         <v>44574</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56552,7 +56552,7 @@
         <v>45096</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56609,7 +56609,7 @@
         <v>45580</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56666,7 +56666,7 @@
         <v>45293</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56723,7 +56723,7 @@
         <v>45656</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56785,7 +56785,7 @@
         <v>45757.67611111111</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56842,7 +56842,7 @@
         <v>44560</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         <v>44446</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -56956,7 +56956,7 @@
         <v>44594</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -57013,7 +57013,7 @@
         <v>45552</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -57070,7 +57070,7 @@
         <v>45426</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -57127,7 +57127,7 @@
         <v>44912.29869212963</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -57184,7 +57184,7 @@
         <v>44967.55960648148</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -57241,7 +57241,7 @@
         <v>44614.59027777778</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57298,7 +57298,7 @@
         <v>44930</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57355,7 +57355,7 @@
         <v>45098.62966435185</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57412,7 +57412,7 @@
         <v>45756.50738425926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57469,7 +57469,7 @@
         <v>45014</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57526,7 +57526,7 @@
         <v>45175</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57588,7 +57588,7 @@
         <v>45474</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         <v>45194</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57707,7 +57707,7 @@
         <v>44819.62</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57764,7 +57764,7 @@
         <v>45335</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         <v>45341</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -57888,7 +57888,7 @@
         <v>45714.55368055555</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -57945,7 +57945,7 @@
         <v>45719.42197916667</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -58007,7 +58007,7 @@
         <v>45719.43646990741</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -58069,7 +58069,7 @@
         <v>44914.67600694444</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -58126,7 +58126,7 @@
         <v>44984.69216435185</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -58188,7 +58188,7 @@
         <v>44379.5745949074</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -58245,7 +58245,7 @@
         <v>45524</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -58307,7 +58307,7 @@
         <v>44623.5571875</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -58369,7 +58369,7 @@
         <v>44960</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -58426,7 +58426,7 @@
         <v>44960.66233796296</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         <v>44532</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58540,7 +58540,7 @@
         <v>44820.47935185185</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58602,7 +58602,7 @@
         <v>45352</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58659,7 +58659,7 @@
         <v>45181.33571759259</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58716,7 +58716,7 @@
         <v>45358</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58773,7 +58773,7 @@
         <v>44894.57065972222</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58835,7 +58835,7 @@
         <v>44378.56137731481</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58892,7 +58892,7 @@
         <v>44944</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -58949,7 +58949,7 @@
         <v>44504</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -59006,7 +59006,7 @@
         <v>45225.46480324074</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -59063,7 +59063,7 @@
         <v>45254</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -59120,7 +59120,7 @@
         <v>44603</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -59177,7 +59177,7 @@
         <v>45513.51815972223</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -59239,7 +59239,7 @@
         <v>44848</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -59296,7 +59296,7 @@
         <v>44438</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -59358,7 +59358,7 @@
         <v>45693</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -59415,7 +59415,7 @@
         <v>45379</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59472,7 +59472,7 @@
         <v>45323.55914351852</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59534,7 +59534,7 @@
         <v>44588</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59591,7 +59591,7 @@
         <v>44883</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59653,7 +59653,7 @@
         <v>45693</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59710,7 +59710,7 @@
         <v>44553</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59767,7 +59767,7 @@
         <v>45770.61341435185</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59829,7 +59829,7 @@
         <v>45096</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59886,7 +59886,7 @@
         <v>45148</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -59943,7 +59943,7 @@
         <v>44980</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -60000,7 +60000,7 @@
         <v>45104.6828125</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -60057,7 +60057,7 @@
         <v>45478.60802083334</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -60119,7 +60119,7 @@
         <v>45096</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -60176,7 +60176,7 @@
         <v>44977</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -60233,7 +60233,7 @@
         <v>45231.54601851852</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -60290,7 +60290,7 @@
         <v>44609.60171296296</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -60352,7 +60352,7 @@
         <v>45761.47540509259</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -60409,7 +60409,7 @@
         <v>45761.47748842592</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         <v>45173</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60523,7 +60523,7 @@
         <v>45699.71063657408</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60580,7 +60580,7 @@
         <v>44888</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60642,7 +60642,7 @@
         <v>45110</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60699,7 +60699,7 @@
         <v>45594</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60761,7 +60761,7 @@
         <v>44623.41775462963</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60823,7 +60823,7 @@
         <v>45644.47723379629</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60880,7 +60880,7 @@
         <v>45075.51982638889</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -60937,7 +60937,7 @@
         <v>45614.67020833334</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -60994,7 +60994,7 @@
         <v>45148</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -61051,7 +61051,7 @@
         <v>45148</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -61108,7 +61108,7 @@
         <v>45182</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -61165,7 +61165,7 @@
         <v>45266</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -61222,7 +61222,7 @@
         <v>45646.61892361111</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -61279,7 +61279,7 @@
         <v>45089</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -61336,7 +61336,7 @@
         <v>44652</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61393,7 +61393,7 @@
         <v>45583</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61455,7 +61455,7 @@
         <v>45583</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61517,7 +61517,7 @@
         <v>45699</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61574,7 +61574,7 @@
         <v>45131</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61631,7 +61631,7 @@
         <v>45694</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61688,7 +61688,7 @@
         <v>44624.35083333333</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -61750,7 +61750,7 @@
         <v>45685.5778125</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -61807,7 +61807,7 @@
         <v>45097</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -61864,7 +61864,7 @@
         <v>45435.34778935185</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -61926,7 +61926,7 @@
         <v>44897</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -61983,7 +61983,7 @@
         <v>45317</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -62040,7 +62040,7 @@
         <v>45180.40255787037</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -62102,7 +62102,7 @@
         <v>45611</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -62159,7 +62159,7 @@
         <v>45049.66025462963</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -62216,7 +62216,7 @@
         <v>45159.44694444445</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -62273,7 +62273,7 @@
         <v>45254.49552083333</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -62330,7 +62330,7 @@
         <v>45344.64759259259</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -62392,7 +62392,7 @@
         <v>45769.6009375</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -62449,7 +62449,7 @@
         <v>45762.61341435185</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -62506,7 +62506,7 @@
         <v>44610</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -62568,7 +62568,7 @@
         <v>45453</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -62625,7 +62625,7 @@
         <v>45638</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -62682,7 +62682,7 @@
         <v>45776.6415162037</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -62744,7 +62744,7 @@
         <v>45520</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -62801,7 +62801,7 @@
         <v>45777.37119212963</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -62863,7 +62863,7 @@
         <v>45777</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62920,7 +62920,7 @@
         <v>45107.55574074074</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -62977,7 +62977,7 @@
         <v>45776.45263888889</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -63039,7 +63039,7 @@
         <v>45777.52655092593</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -63096,7 +63096,7 @@
         <v>45777.34894675926</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -63158,7 +63158,7 @@
         <v>45574</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -63215,7 +63215,7 @@
         <v>45776.48275462963</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -63277,7 +63277,7 @@
         <v>45776</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -63334,7 +63334,7 @@
         <v>45777.32731481481</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -63396,7 +63396,7 @@
         <v>45779.49085648148</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -63458,7 +63458,7 @@
         <v>45779.6665162037</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -63520,7 +63520,7 @@
         <v>45779.65787037037</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -63582,7 +63582,7 @@
         <v>45783.61053240741</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -63639,7 +63639,7 @@
         <v>45784.80497685185</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -63696,7 +63696,7 @@
         <v>45784.57266203704</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -63758,7 +63758,7 @@
         <v>45558.42498842593</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -63815,7 +63815,7 @@
         <v>44569.69358796296</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -63877,7 +63877,7 @@
         <v>45254</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63934,7 +63934,7 @@
         <v>45368.64787037037</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -63996,7 +63996,7 @@
         <v>45584.60038194444</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -64053,7 +64053,7 @@
         <v>45091</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -64115,7 +64115,7 @@
         <v>45371.67368055556</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -64172,7 +64172,7 @@
         <v>45684</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -64229,7 +64229,7 @@
         <v>45407.49721064815</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -64286,7 +64286,7 @@
         <v>45562</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -64343,7 +64343,7 @@
         <v>45177.79766203704</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -64405,7 +64405,7 @@
         <v>45625.58501157408</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -64467,7 +64467,7 @@
         <v>45329</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -64524,7 +64524,7 @@
         <v>44569.49344907407</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -64586,7 +64586,7 @@
         <v>45583.48449074074</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -64648,7 +64648,7 @@
         <v>45790.44972222222</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -64705,7 +64705,7 @@
         <v>45726</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -64762,7 +64762,7 @@
         <v>45790.51040509259</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         <v>45490</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -64876,7 +64876,7 @@
         <v>45195.64807870371</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64933,7 +64933,7 @@
         <v>45439</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -64995,7 +64995,7 @@
         <v>45335.66331018518</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -65057,7 +65057,7 @@
         <v>45636</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -65114,7 +65114,7 @@
         <v>45797.42777777778</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -65171,7 +65171,7 @@
         <v>44277.65650462963</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -65228,7 +65228,7 @@
         <v>45797.45900462963</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -65290,7 +65290,7 @@
         <v>45525</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -65347,7 +65347,7 @@
         <v>45429</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -65404,7 +65404,7 @@
         <v>45799.53803240741</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -65466,7 +65466,7 @@
         <v>45799.57714120371</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -65523,7 +65523,7 @@
         <v>45733.62903935185</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -65580,7 +65580,7 @@
         <v>45799.65021990741</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -65642,7 +65642,7 @@
         <v>45799.6527199074</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -65704,7 +65704,7 @@
         <v>45737.40503472222</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -65761,7 +65761,7 @@
         <v>45799.53947916667</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -65823,7 +65823,7 @@
         <v>45799.54104166666</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -65885,7 +65885,7 @@
         <v>45693</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65942,7 +65942,7 @@
         <v>45799.43496527777</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -66004,7 +66004,7 @@
         <v>45799.5421875</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -66066,7 +66066,7 @@
         <v>45799.64877314815</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -66128,7 +66128,7 @@
         <v>45798.42252314815</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -66185,7 +66185,7 @@
         <v>45803.36384259259</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -66247,7 +66247,7 @@
         <v>45086.7037037037</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -66309,7 +66309,7 @@
         <v>45803.63395833333</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -66366,7 +66366,7 @@
         <v>45608</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -66423,7 +66423,7 @@
         <v>45341</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -66480,7 +66480,7 @@
         <v>45744</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -66537,7 +66537,7 @@
         <v>45805.4094675926</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -66599,7 +66599,7 @@
         <v>45805.41813657407</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -66661,7 +66661,7 @@
         <v>45805.4255787037</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -66723,7 +66723,7 @@
         <v>45805.43402777778</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -66785,7 +66785,7 @@
         <v>45805.41010416667</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -66847,7 +66847,7 @@
         <v>45809</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -66909,7 +66909,7 @@
         <v>45215.44233796297</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -66966,7 +66966,7 @@
         <v>45810.44339120371</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -67028,7 +67028,7 @@
         <v>45809</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -67085,7 +67085,7 @@
         <v>45453.69339120371</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -67147,7 +67147,7 @@
         <v>45511</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -67204,7 +67204,7 @@
         <v>45810.44299768518</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -67266,7 +67266,7 @@
         <v>45812.48032407407</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -67323,7 +67323,7 @@
         <v>45813.46034722222</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -67380,7 +67380,7 @@
         <v>45721.34715277778</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         <v>45814</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -67494,7 +67494,7 @@
         <v>45817</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -575,7 +575,7 @@
         <v>45882.73309027778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>45603</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45901</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45827.64737268518</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>44377</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>45313</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45082</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>46009.57934027778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45715.38824074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45915</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>45803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44532</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>46063</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44971</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45803</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>46009.5597337963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>45202</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44623</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44575</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45936</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>46003.65950231482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45758</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>45196</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>44356</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>44497</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>45803.55535879629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45442</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>45092</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44792</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>46045</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>46055.35829861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>45989.96633101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45841.64539351852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>45841.80690972223</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>45974.6671412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>45985</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45985</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44500</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>44762</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44351</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44574</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>45442</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45107</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>45909.57565972222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>45917.43857638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45736.53695601852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>45316</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>45961.38690972222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45961.37217592593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>45097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>44719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44664</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>45905.62541666667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45905.62641203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44740</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>45952.39770833333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>46003.66043981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44974</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44659</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>46037.42877314815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>45371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44791</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>45831.55982638889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45910.59475694445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>45910.59415509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45922.80255787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>45972.64483796297</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>45035.44672453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>44684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45989.96568287037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>44804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45090</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>45222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45803.61554398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45715.38105324074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45903</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45841.81555555556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45762.62260416667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45189</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>45168.50667824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45960.43780092592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>45954.49768518518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>45981</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>46009.59555555556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45293</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44967</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45694.55559027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44614</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44379</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44831</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45273</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44909</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45464</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>44487</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>44673.47858796296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45811.38710648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>45679</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45818.60254629629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>45817.34614583333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45817</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>45736.49902777778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45896.47487268518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>45825.49060185185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44897</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45901.66702546296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>44645</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44958</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45853.76976851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45916.48704861111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45805.41232638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45442</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44467</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>45757.49934027778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45950</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>45107</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45762.57244212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45874</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45107</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45167</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>46001.44021990741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>45358</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>46009</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>45874.69282407407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>45665</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44917.59298611111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>45314.55579861111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44849</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45385</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45694.49650462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45687</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44583.61803240741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44602</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44517</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44567.81241898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44544</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44526</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44609.61430555556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44323.58961805556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44299</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44714</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44491.50769675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44569.5340625</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44662.56783564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44572.39640046296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44659.70381944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44603</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44700</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44486</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44839</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44369.65428240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44612</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>44598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>44883.56321759259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44314</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>44610</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44865.43494212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>44742</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>44704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>44533.4678587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>44764</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44297</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44351</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44349.49666666667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>44584.63190972222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44490.64313657407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44281.4499537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44610</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44335.52201388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44512</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44740.68142361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44722.30703703704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44705.78475694444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>44705.83326388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>44692.87630787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>44543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>44378.69857638889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44383</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44643.51446759259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44504.59193287037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44750.45800925926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44446.47693287037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44676</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44491.54116898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44847.35622685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44476.61263888889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44705.84535879629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44799.36359953704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44575</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44575.4366087963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44328.57100694445</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44369</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44702.70721064815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44442.35195601852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44442</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44551.59704861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44838.40635416667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44571.44563657408</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44459</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44517</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44634</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44886.58890046296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44698.67151620371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44277.65263888889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44599.43265046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44461.73350694445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44865</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44479</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44489</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44543.34697916666</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44495</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44522.55518518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44649</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44750.678125</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44685.6212037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733.43420138889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44711</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44623.4572337963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44729</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44266.57917824074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44294.37555555555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44791.38336805555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44659.57912037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44623</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44798</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45187.61136574074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45371.50738425926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44859.36896990741</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45723</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44328</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>44832</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45208.46130787037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>44883</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44866</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>45741.45114583334</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44847</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>45259.52809027778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44446</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45096</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45758</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44371.49178240741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44809.92752314815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>44810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>44395</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>44551.76711805556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>45327</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>45050.49392361111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>45231.54601851852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44883</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44849</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44894.57065972222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45341</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45341.63811342593</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44935</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44435.38657407407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44602</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45614.65928240741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>44504</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>44977</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>44624.64538194444</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45453</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45618.71140046296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44637.56178240741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44909</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>45425.94947916667</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>44599.42277777778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>45524</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>44593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44593.61355324074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45194.63479166666</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44426</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>45344</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>45803.63395833333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44608</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45202.4997337963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45805.4094675926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>45805.41010416667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45805.41813657407</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45805.43402777778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45552</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44593</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45805.4255787037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>45511</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44960</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44960.66233796296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>45810.44339120371</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45215.44233796297</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45726</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45757</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45839</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45809</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>45453.69339120371</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>45810.44299768518</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45809</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45812.48032407407</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44553</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45890</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>45231</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>45097</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45721.34715277778</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45814</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45813.46034722222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44893</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45369</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44904</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44659</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45818.57910879629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>45358</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>45891.4865625</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>45817</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45379</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44912.29869212963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44614.69730324074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45443</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44967.55960648148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45820</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45820</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45523</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26571,7 +26571,7 @@
         <v>45817</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>45891.33204861111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>45721.60894675926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26747,7 +26747,7 @@
         <v>45254</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>45820</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26861,7 +26861,7 @@
         <v>45821.45905092593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26918,7 +26918,7 @@
         <v>45891.46827546296</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26975,7 +26975,7 @@
         <v>45824.43798611111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -27037,7 +27037,7 @@
         <v>45202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>45821.44101851852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>45896.61050925926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45896</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>45896.57171296296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>45896.57368055556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>45825.44482638889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45897</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>45827.62096064815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45827.64092592592</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>45390</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>44617.48311342593</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>45901.41756944444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45902.42243055555</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45827.46288194445</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45901.41853009259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44977</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>45831.42616898148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>45446.78256944445</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>45831.73</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>45903.69096064815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45903.69358796296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45729</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28517,7 +28517,7 @@
         <v>45769.6009375</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28574,7 +28574,7 @@
         <v>45693</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28631,7 +28631,7 @@
         <v>45809</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45809</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28755,7 +28755,7 @@
         <v>45832.35590277778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45831.40671296296</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>45799.53348379629</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45904</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45903</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45832.35545138889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45831.72686342592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45426</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45904.77746527778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44733</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>45905.64862268518</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>45905.5756712963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>45835.62752314815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>44994</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>44665</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45068.58563657408</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45426.34148148148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29811,7 +29811,7 @@
         <v>45363.54878472222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44967.80034722222</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44967</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45839</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44929</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>45839</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>45821.31292824074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>45840</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45730.43966435185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45614</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45841.5847337963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45583</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>44608</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>44909.51885416666</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>45720.60410879629</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>45842.74049768518</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>45600</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30887,7 +30887,7 @@
         <v>45912.7097337963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>45107.53688657407</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>45456.59535879629</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45679</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45763.52744212963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>45152</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45845.53202546296</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45520</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45851.60097222222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>45851.62018518519</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>45915.64064814815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>45644.62677083333</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>45426</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31710,7 +31710,7 @@
         <v>45849.49259259259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45852.67366898148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45852.39642361111</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45852.36871527778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45852.68978009259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45474.41729166666</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>45852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>45852.72965277778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45854.44017361111</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45913.39467592593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45856.34959490741</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>45856</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>45856.34034722222</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45856.34231481481</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>45916</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45831.42365740741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45642</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>45838</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>45695.83655092592</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45838</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45918.37322916667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45707</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45922.42865740741</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>45349</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45863.44648148148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>45863.45355324074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>45645</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>45113</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>45113.80170138889</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>45757.6997337963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>45757</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>45631.44464120371</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45922.48148148148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>45922.46763888889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>45922</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>45922</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>45867.58056712963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>45923.70230324074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45693</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>45719.4094212963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45923.70146990741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45926.63290509259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45926.45846064815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34281,7 +34281,7 @@
         <v>45719.43872685185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>45926.366875</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>45831.46731481481</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>45926.35917824074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45926.35998842592</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>45614</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44644.37548611111</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>45926.63366898148</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34767,7 +34767,7 @@
         <v>45926.63232638889</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34829,7 +34829,7 @@
         <v>44400.6750925926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>44403.3119212963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45930.55024305556</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45929.53203703704</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         <v>45929.69553240741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35134,7 +35134,7 @@
         <v>45929.6965162037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35196,7 +35196,7 @@
         <v>44980</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>45182</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35310,7 +35310,7 @@
         <v>45931.59091435185</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45931.52792824074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45932.37375</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45874</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45931.37734953704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>44508.44033564815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45932.59373842592</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45932.61177083333</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>45874.705</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44519.64902777778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45931.37796296296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35972,7 +35972,7 @@
         <v>45876</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -36029,7 +36029,7 @@
         <v>45656</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45876</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36148,7 +36148,7 @@
         <v>45098.63572916666</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36205,7 +36205,7 @@
         <v>45877.57847222222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45880.32907407408</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45851.62179398148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>45694</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45880.34064814815</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45932.62907407407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45880</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36614,7 +36614,7 @@
         <v>45877.62969907407</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44820.47935185185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36733,7 +36733,7 @@
         <v>45624</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36790,7 +36790,7 @@
         <v>45880.68200231482</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36847,7 +36847,7 @@
         <v>45691</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         <v>45881.45898148148</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>45679</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>45065.43013888889</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>45838</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>45637</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44532</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>45882.52290509259</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>45691</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>45882.37202546297</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>45931.59373842592</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37494,7 +37494,7 @@
         <v>45881.44938657407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37551,7 +37551,7 @@
         <v>45691</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>45719.43755787037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>45054.95675925926</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>45047.31793981481</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44888</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>45934.55967592593</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37908,7 +37908,7 @@
         <v>45127</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37965,7 +37965,7 @@
         <v>44379.5745949074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -38022,7 +38022,7 @@
         <v>45938.3615625</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -38084,7 +38084,7 @@
         <v>45048.55349537037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>45937.68865740741</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38198,7 +38198,7 @@
         <v>45937</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>45937</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44848</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>45259</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>45938.35063657408</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>45940.45038194444</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>45223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>45939.32621527778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44420</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>44993</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>45940.67084490741</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>45940.67305555556</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>45714.55368055555</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>45763.52995370371</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -39006,7 +39006,7 @@
         <v>44531</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -39063,7 +39063,7 @@
         <v>45942.84414351852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39120,7 +39120,7 @@
         <v>45884</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>45942.80185185185</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>45942.80318287037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44532</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>45944</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39415,7 +39415,7 @@
         <v>45942.79476851852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>45943.70756944444</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45942.8396412037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45946.64121527778</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>45898.46040509259</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45757.67611111111</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>45078</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44378.56137731481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45946.30063657407</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39948,7 +39948,7 @@
         <v>45946.31299768519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         <v>45950.55603009259</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>45947.4724537037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40129,7 +40129,7 @@
         <v>45946.75140046296</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40186,7 +40186,7 @@
         <v>45946.76038194444</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>45950</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40300,7 +40300,7 @@
         <v>45949</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         <v>45202</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40414,7 +40414,7 @@
         <v>45947.58105324074</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>45950</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40533,7 +40533,7 @@
         <v>45638</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40590,7 +40590,7 @@
         <v>44900.54711805555</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40647,7 +40647,7 @@
         <v>45580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40704,7 +40704,7 @@
         <v>44944</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40761,7 +40761,7 @@
         <v>45555.5727662037</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40818,7 +40818,7 @@
         <v>45295</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>45953.53460648148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>45554</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>45953.53765046296</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>45954.51438657408</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44816</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>45954.528125</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>45954.38475694445</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>45763.6503125</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>45316</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45958.49162037037</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>45317</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>45958.6516087963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41579,7 +41579,7 @@
         <v>45307</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41636,7 +41636,7 @@
         <v>45104.6828125</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41693,7 +41693,7 @@
         <v>45957.95233796296</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>45642</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>45958.37273148148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>45119</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>45958.60826388889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41988,7 +41988,7 @@
         <v>45958.62303240741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -42050,7 +42050,7 @@
         <v>45958.64146990741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>45957</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42169,7 +42169,7 @@
         <v>45958.62765046296</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>45958.62983796297</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45957.66506944445</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>44966</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42412,7 +42412,7 @@
         <v>45958.61577546296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42474,7 +42474,7 @@
         <v>45958.63368055555</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42536,7 +42536,7 @@
         <v>44501.71344907407</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>45960.43065972222</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>45756.44024305556</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42712,7 +42712,7 @@
         <v>45756.50738425926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         <v>45959.36146990741</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42831,7 +42831,7 @@
         <v>45644</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42888,7 +42888,7 @@
         <v>45959.35965277778</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45959.60851851852</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44548</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44550.37994212963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44980</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -43188,7 +43188,7 @@
         <v>45961.41853009259</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         <v>45961.40716435185</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43302,7 +43302,7 @@
         <v>45965.82398148148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>45966.53721064814</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45254.49552083333</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45611</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45964.76486111111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45344.64759259259</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>45966.53849537037</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43721,7 +43721,7 @@
         <v>45107</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43778,7 +43778,7 @@
         <v>45107</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43835,7 +43835,7 @@
         <v>45107</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45344.69567129629</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44816</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45965.61792824074</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -44073,7 +44073,7 @@
         <v>45965</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45965.81543981482</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>45133</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>45096</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>45098.62966435185</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44368,7 +44368,7 @@
         <v>44544</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44519</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>45335</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45293</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45163.59913194444</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45096</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44715,7 +44715,7 @@
         <v>45294.5666550926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44777,7 +44777,7 @@
         <v>45971.37480324074</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44834,7 +44834,7 @@
         <v>44553</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44891,7 +44891,7 @@
         <v>45840.68518518518</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44948,7 +44948,7 @@
         <v>45971.70613425926</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -45010,7 +45010,7 @@
         <v>45936.73660879629</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -45067,7 +45067,7 @@
         <v>45972</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -45124,7 +45124,7 @@
         <v>44603</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -45181,7 +45181,7 @@
         <v>45161</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -45238,7 +45238,7 @@
         <v>45524</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>44629.57741898148</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45362,7 +45362,7 @@
         <v>45468</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45419,7 +45419,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45481,7 +45481,7 @@
         <v>45975.5341550926</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45538,7 +45538,7 @@
         <v>45975.59520833333</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>45134.57021990741</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44533.46665509259</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45975.65054398148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45776,7 +45776,7 @@
         <v>45975.424375</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>45975.37621527778</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>45021.29524305555</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45583</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>45583</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -46081,7 +46081,7 @@
         <v>44535</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44637.35744212963</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -46195,7 +46195,7 @@
         <v>45036</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -46252,7 +46252,7 @@
         <v>45624</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -46309,7 +46309,7 @@
         <v>45162</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -46371,7 +46371,7 @@
         <v>45159.44694444445</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
         <v>45980.4484837963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         <v>45981</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46604,7 +46604,7 @@
         <v>45982</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46661,7 +46661,7 @@
         <v>45981.58204861111</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46718,7 +46718,7 @@
         <v>45201.62318287037</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45981</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>45358</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>45981.60923611111</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -47013,7 +47013,7 @@
         <v>45981.61822916667</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -47075,7 +47075,7 @@
         <v>44616</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -47137,7 +47137,7 @@
         <v>45181.33571759259</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -47194,7 +47194,7 @@
         <v>45958.58711805556</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>45981.57793981482</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>44516</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47370,7 +47370,7 @@
         <v>45177.56940972222</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47427,7 +47427,7 @@
         <v>45736.60863425926</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47489,7 +47489,7 @@
         <v>45983.85069444445</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47546,7 +47546,7 @@
         <v>45763</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47603,7 +47603,7 @@
         <v>45943.53451388889</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47665,7 +47665,7 @@
         <v>45943.5354050926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47727,7 +47727,7 @@
         <v>45644</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47784,7 +47784,7 @@
         <v>45159.45748842593</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47841,7 +47841,7 @@
         <v>45943.53341435185</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>45988.61304398148</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47965,7 +47965,7 @@
         <v>45643</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -48022,7 +48022,7 @@
         <v>44678.3315625</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -48084,7 +48084,7 @@
         <v>44610</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         <v>45615</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -48203,7 +48203,7 @@
         <v>45638</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -48260,7 +48260,7 @@
         <v>45943.53659722222</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>45992.60832175926</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>45992.47825231482</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         <v>45644</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48493,7 +48493,7 @@
         <v>45188</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48555,7 +48555,7 @@
         <v>44832.49594907407</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48612,7 +48612,7 @@
         <v>45338.49412037037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48669,7 +48669,7 @@
         <v>45721.35173611111</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48726,7 +48726,7 @@
         <v>45994.62346064814</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48788,7 +48788,7 @@
         <v>45148</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48845,7 +48845,7 @@
         <v>45148</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48902,7 +48902,7 @@
         <v>45148</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48959,7 +48959,7 @@
         <v>45940</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -49016,7 +49016,7 @@
         <v>44588</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -49073,7 +49073,7 @@
         <v>45323.55914351852</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -49135,7 +49135,7 @@
         <v>45995.31793981481</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -49192,7 +49192,7 @@
         <v>45194</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -49254,7 +49254,7 @@
         <v>45995.31737268518</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -49311,7 +49311,7 @@
         <v>45581</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>45995.63483796296</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49425,7 +49425,7 @@
         <v>45601</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>44594</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>45638</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>45371</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49663,7 +49663,7 @@
         <v>45677</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49720,7 +49720,7 @@
         <v>45190</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49777,7 +49777,7 @@
         <v>44629.42423611111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49834,7 +49834,7 @@
         <v>45351.54596064815</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49896,7 +49896,7 @@
         <v>45999</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49953,7 +49953,7 @@
         <v>45054.9271875</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -50010,7 +50010,7 @@
         <v>45987</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -50067,7 +50067,7 @@
         <v>45646.50211805556</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -50124,7 +50124,7 @@
         <v>45173</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -50181,7 +50181,7 @@
         <v>44594</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -50238,7 +50238,7 @@
         <v>45194.60876157408</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -50300,7 +50300,7 @@
         <v>44819.62</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -50357,7 +50357,7 @@
         <v>45055</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50414,7 +50414,7 @@
         <v>45182</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50471,7 +50471,7 @@
         <v>45182</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50528,7 +50528,7 @@
         <v>45093.46706018518</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50590,7 +50590,7 @@
         <v>45407.69575231482</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50647,7 +50647,7 @@
         <v>45188.42052083334</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50704,7 +50704,7 @@
         <v>45231.62840277778</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50761,7 +50761,7 @@
         <v>45677</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50818,7 +50818,7 @@
         <v>45695.8391550926</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50880,7 +50880,7 @@
         <v>45695.84078703704</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50942,7 +50942,7 @@
         <v>46045</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50999,7 +50999,7 @@
         <v>45216</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -51056,7 +51056,7 @@
         <v>45216</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -51118,7 +51118,7 @@
         <v>45173</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -51175,7 +51175,7 @@
         <v>45694</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -51232,7 +51232,7 @@
         <v>44588</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -51289,7 +51289,7 @@
         <v>45729</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         <v>45208.4350462963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45705</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>45180.40255787037</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>44614.59027777778</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51636,7 +51636,7 @@
         <v>44679.68706018518</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51698,7 +51698,7 @@
         <v>45149.56928240741</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45181.36815972222</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>44679.66694444444</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         <v>46051.88001157407</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51941,7 +51941,7 @@
         <v>46051</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51998,7 +51998,7 @@
         <v>45182</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45175</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -52117,7 +52117,7 @@
         <v>46009.63920138889</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>46051.48957175926</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>46013.55923611111</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>46013.57037037037</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>46055.36872685186</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>46055.61907407407</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45699</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52521,7 +52521,7 @@
         <v>45152</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45694.49037037037</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>46011.70635416666</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52697,7 +52697,7 @@
         <v>46013.56292824074</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52754,7 +52754,7 @@
         <v>44699</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>46013.56641203703</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45225.46480324074</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45131</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>46057.6280787037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45259</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         <v>45236.47697916667</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -53163,7 +53163,7 @@
         <v>46014.35287037037</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -53225,7 +53225,7 @@
         <v>46014.45854166667</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -53282,7 +53282,7 @@
         <v>45299</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -53339,7 +53339,7 @@
         <v>45267</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53401,7 +53401,7 @@
         <v>45236</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53458,7 +53458,7 @@
         <v>46062.73762731482</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53520,7 +53520,7 @@
         <v>46062.73936342593</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53582,7 +53582,7 @@
         <v>46062.74180555555</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53644,7 +53644,7 @@
         <v>46059.76059027778</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53706,7 +53706,7 @@
         <v>46059.43493055556</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>46059.4413425926</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53830,7 +53830,7 @@
         <v>46062.53357638889</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53887,7 +53887,7 @@
         <v>45719.42197916667</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53949,7 +53949,7 @@
         <v>45719.43646990741</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -54011,7 +54011,7 @@
         <v>45968.76021990741</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -54073,7 +54073,7 @@
         <v>44799.36695601852</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -54130,7 +54130,7 @@
         <v>45254</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -54187,7 +54187,7 @@
         <v>45321</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -54244,7 +54244,7 @@
         <v>45317</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -54301,7 +54301,7 @@
         <v>45361.57299768519</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -54363,7 +54363,7 @@
         <v>46064.78336805556</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54420,7 +54420,7 @@
         <v>46065.72112268519</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         <v>45164.82913194445</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54539,7 +54539,7 @@
         <v>45351.48662037037</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54596,7 +54596,7 @@
         <v>44930</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54653,7 +54653,7 @@
         <v>45310</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54710,7 +54710,7 @@
         <v>44438</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54772,7 +54772,7 @@
         <v>46064</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54829,7 +54829,7 @@
         <v>46065.50152777778</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54886,7 +54886,7 @@
         <v>46065.49472222223</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54943,7 +54943,7 @@
         <v>45091.69766203704</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -55000,7 +55000,7 @@
         <v>45751.32001157408</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -55057,7 +55057,7 @@
         <v>46069.57407407407</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -55119,7 +55119,7 @@
         <v>46030</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -55181,7 +55181,7 @@
         <v>45693</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -55238,7 +55238,7 @@
         <v>46030.56152777778</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -55295,7 +55295,7 @@
         <v>44788</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -55352,7 +55352,7 @@
         <v>45761.47540509259</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55409,7 +55409,7 @@
         <v>45761.47748842592</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55466,7 +55466,7 @@
         <v>46029.40886574074</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55523,7 +55523,7 @@
         <v>45693</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55580,7 +55580,7 @@
         <v>44817</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55637,7 +55637,7 @@
         <v>45216.39040509259</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55694,7 +55694,7 @@
         <v>45478</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55756,7 +55756,7 @@
         <v>45599</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55813,7 +55813,7 @@
         <v>46031.63210648148</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55870,7 +55870,7 @@
         <v>45642.63524305556</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55927,7 +55927,7 @@
         <v>45646.61892361111</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55984,7 +55984,7 @@
         <v>46076.50559027777</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -56046,7 +56046,7 @@
         <v>44984.69216435185</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -56108,7 +56108,7 @@
         <v>44379.56163194445</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -56165,7 +56165,7 @@
         <v>45391.37361111111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -56222,7 +56222,7 @@
         <v>45520</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -56279,7 +56279,7 @@
         <v>44581.60254629629</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -56341,7 +56341,7 @@
         <v>44568.67040509259</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56403,7 +56403,7 @@
         <v>46057.60431712963</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56460,7 +56460,7 @@
         <v>44908.425625</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56517,7 +56517,7 @@
         <v>44358.63490740741</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56574,7 +56574,7 @@
         <v>44949.4708912037</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56631,7 +56631,7 @@
         <v>44403.29719907408</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56693,7 +56693,7 @@
         <v>46077.68528935185</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         <v>44946.43564814814</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56812,7 +56812,7 @@
         <v>45033</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56869,7 +56869,7 @@
         <v>44531</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56926,7 +56926,7 @@
         <v>46077.67903935185</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56988,7 +56988,7 @@
         <v>46077.68155092592</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -57050,7 +57050,7 @@
         <v>44273</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -57107,7 +57107,7 @@
         <v>44960</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -57164,7 +57164,7 @@
         <v>44593.64863425926</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -57226,7 +57226,7 @@
         <v>44928</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -57288,7 +57288,7 @@
         <v>45552</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -57345,7 +57345,7 @@
         <v>46049.58660879629</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45121</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57464,7 +57464,7 @@
         <v>44819.50233796296</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57526,7 +57526,7 @@
         <v>44616</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57583,7 +57583,7 @@
         <v>44886</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57640,7 +57640,7 @@
         <v>46059.76631944445</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57702,7 +57702,7 @@
         <v>44560</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57759,7 +57759,7 @@
         <v>44600</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57821,7 +57821,7 @@
         <v>44623.41775462963</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57883,7 +57883,7 @@
         <v>44623.5571875</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57945,7 +57945,7 @@
         <v>45167.3721412037</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -58002,7 +58002,7 @@
         <v>46080.58021990741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -58059,7 +58059,7 @@
         <v>44965</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -58116,7 +58116,7 @@
         <v>44965</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -58173,7 +58173,7 @@
         <v>45308.63298611111</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -58230,7 +58230,7 @@
         <v>45212.34997685185</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -58287,7 +58287,7 @@
         <v>44886.5928125</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -58344,7 +58344,7 @@
         <v>45293</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -58401,7 +58401,7 @@
         <v>45181.58055555556</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -58463,7 +58463,7 @@
         <v>45670</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -58525,7 +58525,7 @@
         <v>44742</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -58587,7 +58587,7 @@
         <v>45231</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58644,7 +58644,7 @@
         <v>45341</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         <v>45594</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58768,7 +58768,7 @@
         <v>45300.55028935185</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58825,7 +58825,7 @@
         <v>45097</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58882,7 +58882,7 @@
         <v>44969</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58939,7 +58939,7 @@
         <v>44944</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58996,7 +58996,7 @@
         <v>45601</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -59053,7 +59053,7 @@
         <v>45154.35092592592</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -59110,7 +59110,7 @@
         <v>44652</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -59167,7 +59167,7 @@
         <v>45678</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -59224,7 +59224,7 @@
         <v>44679</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -59281,7 +59281,7 @@
         <v>45656</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -59343,7 +59343,7 @@
         <v>45694</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -59400,7 +59400,7 @@
         <v>44806</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -59457,7 +59457,7 @@
         <v>45049.66025462963</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -59514,7 +59514,7 @@
         <v>44574</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59571,7 +59571,7 @@
         <v>44645.39157407408</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59633,7 +59633,7 @@
         <v>44497.4666087963</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59690,7 +59690,7 @@
         <v>45152</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59747,7 +59747,7 @@
         <v>44964.65261574074</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59804,7 +59804,7 @@
         <v>44599.44832175926</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59861,7 +59861,7 @@
         <v>45638</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59918,7 +59918,7 @@
         <v>45000.44666666666</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59975,7 +59975,7 @@
         <v>45762.61341435185</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -60032,7 +60032,7 @@
         <v>45713.44519675926</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -60089,7 +60089,7 @@
         <v>45327.61831018519</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         <v>45352</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -60203,7 +60203,7 @@
         <v>44944</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -60260,7 +60260,7 @@
         <v>45266</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -60317,7 +60317,7 @@
         <v>44872</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -60374,7 +60374,7 @@
         <v>45513.51815972223</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -60436,7 +60436,7 @@
         <v>45617.59006944444</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -60493,7 +60493,7 @@
         <v>45049</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60550,7 +60550,7 @@
         <v>44560</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60607,7 +60607,7 @@
         <v>45336.53908564815</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60664,7 +60664,7 @@
         <v>45614.67020833334</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60721,7 +60721,7 @@
         <v>45770.61341435185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60783,7 +60783,7 @@
         <v>45677.39440972222</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60840,7 +60840,7 @@
         <v>45169</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60902,7 +60902,7 @@
         <v>45244.52202546296</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60964,7 +60964,7 @@
         <v>45435.34778935185</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         <v>45763</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -61083,7 +61083,7 @@
         <v>45548.42854166667</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -61140,7 +61140,7 @@
         <v>44532</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -61197,7 +61197,7 @@
         <v>45190</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -61254,7 +61254,7 @@
         <v>44977</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -61311,7 +61311,7 @@
         <v>45336.54270833333</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -61368,7 +61368,7 @@
         <v>45110</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -61425,7 +61425,7 @@
         <v>45194</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61487,7 +61487,7 @@
         <v>45474</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61544,7 +61544,7 @@
         <v>45611</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61601,7 +61601,7 @@
         <v>45300.55680555556</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61658,7 +61658,7 @@
         <v>45589</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61715,7 +61715,7 @@
         <v>45589</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61772,7 +61772,7 @@
         <v>44609.60171296296</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -61834,7 +61834,7 @@
         <v>44503</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -61891,7 +61891,7 @@
         <v>44624.35083333333</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -61953,7 +61953,7 @@
         <v>45456.58491898148</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -62010,7 +62010,7 @@
         <v>44897</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -62067,7 +62067,7 @@
         <v>45729</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -62124,7 +62124,7 @@
         <v>45729</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -62181,7 +62181,7 @@
         <v>45327</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -62238,7 +62238,7 @@
         <v>45014</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -62295,7 +62295,7 @@
         <v>45222</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -62352,7 +62352,7 @@
         <v>44593</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -62409,7 +62409,7 @@
         <v>45685.5778125</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         <v>45695.59805555556</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -62528,7 +62528,7 @@
         <v>45460</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -62590,7 +62590,7 @@
         <v>45345.56</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -62647,7 +62647,7 @@
         <v>44914.67600694444</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -62704,7 +62704,7 @@
         <v>45061</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -62761,7 +62761,7 @@
         <v>45583.47836805556</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -62823,7 +62823,7 @@
         <v>44912</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>44967.78984953704</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45075.51982638889</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45699</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -63051,7 +63051,7 @@
         <v>45733.63099537037</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -63108,7 +63108,7 @@
         <v>45426.61569444444</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -63165,7 +63165,7 @@
         <v>45478.60802083334</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -63227,7 +63227,7 @@
         <v>45719.40723379629</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -63289,7 +63289,7 @@
         <v>45154.34931712963</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -63346,7 +63346,7 @@
         <v>45699.71063657408</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -63403,7 +63403,7 @@
         <v>45729</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -63460,7 +63460,7 @@
         <v>45743.50744212963</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -63517,7 +63517,7 @@
         <v>45175.57060185185</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -63574,7 +63574,7 @@
         <v>45695.59197916667</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45644.47723379629</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45006</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45307</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -63807,7 +63807,7 @@
         <v>45614</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -63864,7 +63864,7 @@
         <v>45327</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -63921,7 +63921,7 @@
         <v>45300</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63978,7 +63978,7 @@
         <v>45670</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -64040,7 +64040,7 @@
         <v>45776.48275462963</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45776</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -64159,7 +64159,7 @@
         <v>45776.45263888889</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45107.55574074074</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45776.6415162037</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45777.37119212963</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -64402,7 +64402,7 @@
         <v>45777.34894675926</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -64464,7 +64464,7 @@
         <v>45777.32731481481</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -64526,7 +64526,7 @@
         <v>45777.52655092593</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -64583,7 +64583,7 @@
         <v>45777</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -64640,7 +64640,7 @@
         <v>45520</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -64697,7 +64697,7 @@
         <v>45574</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -64754,7 +64754,7 @@
         <v>45779.6665162037</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -64816,7 +64816,7 @@
         <v>45779.65787037037</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -64878,7 +64878,7 @@
         <v>45779.49085648148</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -64940,7 +64940,7 @@
         <v>45783.61053240741</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64997,7 +64997,7 @@
         <v>45784.57266203704</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -65059,7 +65059,7 @@
         <v>44569.49344907407</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -65121,7 +65121,7 @@
         <v>45407.49721064815</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -65178,7 +65178,7 @@
         <v>45784.80497685185</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -65235,7 +65235,7 @@
         <v>45329</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -65292,7 +65292,7 @@
         <v>45177.79766203704</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -65354,7 +65354,7 @@
         <v>45558.42498842593</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -65411,7 +65411,7 @@
         <v>45562</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -65468,7 +65468,7 @@
         <v>45368.64787037037</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -65530,7 +65530,7 @@
         <v>44569.69358796296</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -65592,7 +65592,7 @@
         <v>45684</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -65649,7 +65649,7 @@
         <v>45254</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -65706,7 +65706,7 @@
         <v>45726</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -65763,7 +65763,7 @@
         <v>45371.67368055556</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -65820,7 +65820,7 @@
         <v>45790.51040509259</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -65877,7 +65877,7 @@
         <v>45091</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -65939,7 +65939,7 @@
         <v>45790.44972222222</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65996,7 +65996,7 @@
         <v>45583.48449074074</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -66058,7 +66058,7 @@
         <v>45584.60038194444</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         <v>45625.58501157408</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -66177,7 +66177,7 @@
         <v>45525</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -66234,7 +66234,7 @@
         <v>45335.66331018518</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -66296,7 +66296,7 @@
         <v>45195.64807870371</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -66353,7 +66353,7 @@
         <v>45636</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -66410,7 +66410,7 @@
         <v>44277.65650462963</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -66467,7 +66467,7 @@
         <v>45490</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -66524,7 +66524,7 @@
         <v>45439</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -66586,7 +66586,7 @@
         <v>45429</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -66643,7 +66643,7 @@
         <v>45797.45900462963</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -66705,7 +66705,7 @@
         <v>45798.42252314815</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -66762,7 +66762,7 @@
         <v>45797.42777777778</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -66819,7 +66819,7 @@
         <v>45693</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -66876,7 +66876,7 @@
         <v>45799.53803240741</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -66938,7 +66938,7 @@
         <v>45799.5421875</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -67000,7 +67000,7 @@
         <v>45799.57714120371</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -67057,7 +67057,7 @@
         <v>45799.64877314815</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -67119,7 +67119,7 @@
         <v>45733.62903935185</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -67176,7 +67176,7 @@
         <v>45799.53947916667</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -67238,7 +67238,7 @@
         <v>45799.54104166666</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -67300,7 +67300,7 @@
         <v>45737.40503472222</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -67357,7 +67357,7 @@
         <v>45799.65021990741</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -67419,7 +67419,7 @@
         <v>45799.6527199074</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -67481,7 +67481,7 @@
         <v>45799.43496527777</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -67543,7 +67543,7 @@
         <v>45086.7037037037</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -67605,7 +67605,7 @@
         <v>45744</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -67662,7 +67662,7 @@
         <v>45341</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -67719,7 +67719,7 @@
         <v>45608</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -67776,7 +67776,7 @@
         <v>45803.36384259259</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>

--- a/Översikt UPPSALA.xlsx
+++ b/Översikt UPPSALA.xlsx
@@ -575,7 +575,7 @@
         <v>45882.73309027778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         <v>45603</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>45901</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45827.64737268518</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         <v>44377</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>45313</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45960</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         <v>45882</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45728</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         <v>45082</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>46009.57934027778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>45715.38824074074</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45915</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>45803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>44532</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>46063</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>44971</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>45086</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45803</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>46009.5597337963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>45202</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44623</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44575</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45936</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>46003.65950231482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>45758</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>45196</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>45803</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>44356</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>44497</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>45803.55535879629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45442</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>45092</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4079,7 +4079,7 @@
         <v>44792</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>46045</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>46055.35829861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         <v>45989.96633101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45841.64539351852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>45841.80690972223</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>45974.6671412037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         <v>45985</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45985</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         <v>44500</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>44762</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44351</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>44574</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>45442</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45107</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>45909.57565972222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>45917.43857638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45736.53695601852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>45316</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>45961.38690972222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45961.37217592593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>45097</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>44719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>44664</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>45905.62541666667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45905.62641203704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>44740</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>45952.39770833333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>46003.66043981481</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44974</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>44659</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>46037.42877314815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>45371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>44791</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>45831.55982638889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45910.59475694445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>45910.59415509259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>45922.80255787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>45972.64483796297</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>45035.44672453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>44684</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45336</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>45989.96568287037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>44804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>45090</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>45222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>45803.61554398148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45715.38105324074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45903</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>44489</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45841.81555555556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45762.62260416667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45189</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>45168.50667824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45960.43780092592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>45954.49768518518</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>45981</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>46009.59555555556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45293</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>45985</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44967</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>45694.55559027778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>44614</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>44651</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44379</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44831</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45273</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44909</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45464</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10586,7 +10586,7 @@
         <v>44487</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>44673.47858796296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>45098</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45811.38710648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>45679</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45818.60254629629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>45817.34614583333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>45817</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         <v>45736.49902777778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>45896.47487268518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>45825.49060185185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>44897</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45901.66702546296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11738,7 +11738,7 @@
         <v>44645</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44958</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>45853.76976851852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45916.48704861111</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>45805.41232638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>45442</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>44467</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>45757.49934027778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45950</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44917</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>45107</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>45762.57244212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45874</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45107</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45167</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>46001.44021990741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>45358</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>46009</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>45874.69282407407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         <v>45665</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44917.59298611111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>45314.55579861111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44849</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45385</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45694.49650462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45783</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>45687</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44583.61803240741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44602</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44602</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44517</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44567.81241898148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44407</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44544</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44526</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44489</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>44609.61430555556</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44323.58961805556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44299</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14915,7 +14915,7 @@
         <v>44714</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44491.50769675926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>44569.5340625</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>44662.56783564815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15158,7 +15158,7 @@
         <v>44572.39640046296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44659.70381944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -15339,7 +15339,7 @@
         <v>44603</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -15396,7 +15396,7 @@
         <v>44700</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>44486</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44839</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>44784</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>44369.65428240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>44612</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>44720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>44886</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>44598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>44883.56321759259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44314</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>44610</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>44865.43494212963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>44357</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         <v>44742</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         <v>44704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         <v>44533.4678587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>44764</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44297</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44351</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44349.49666666667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>44584.63190972222</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16757,7 +16757,7 @@
         <v>44609</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16819,7 +16819,7 @@
         <v>44490.64313657407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>44281.4499537037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>44610</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>44335.52201388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>44512</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44740.68142361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>44816</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -17233,7 +17233,7 @@
         <v>44297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44722.30703703704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44705.78475694444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>44705.83326388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>44692.87630787037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>44543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44461</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>44378.69857638889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44383</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         <v>44643.51446759259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
         <v>44504.59193287037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>44750.45800925926</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>44446.47693287037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>44676</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>44491.54116898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>44847.35622685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>44476.61263888889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44705.84535879629</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44799.36359953704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44575</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44575.4366087963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44328.57100694445</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44369</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44702.70721064815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44442.35195601852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44442</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44551.59704861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44838.40635416667</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44571.44563657408</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44459</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44517</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>44634</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44886.58890046296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44698.67151620371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44277.65263888889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44599.43265046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44461.73350694445</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>44865</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>44479</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>44489</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>44543.34697916666</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44495</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>44522.55518518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>44649</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>44847</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>44750.678125</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44685.6212037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733.43420138889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44711</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -20272,7 +20272,7 @@
         <v>44623.4572337963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44729</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44266.57917824074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44294.37555555555</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44791.38336805555</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44659.57912037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44623</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44798</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>45187.61136574074</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>45371.50738425926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>44859.36896990741</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45723</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>44328</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -21058,7 +21058,7 @@
         <v>44832</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         <v>45208.46130787037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
         <v>44883</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44866</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>45741.45114583334</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>44847</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>45259.52809027778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>44446</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45096</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45758</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44371.49178240741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21695,7 +21695,7 @@
         <v>44809.92752314815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21752,7 +21752,7 @@
         <v>44810</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>44395</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>44551.76711805556</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21928,7 +21928,7 @@
         <v>45327</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>45050.49392361111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>45231.54601851852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45259</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44883</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44849</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44894.57065972222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45341</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45341.63811342593</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>44935</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>44435.38657407407</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44602</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45614.65928240741</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>44504</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>44977</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>44624.64538194444</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22912,7 +22912,7 @@
         <v>45453</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45618.71140046296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44637.56178240741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
         <v>44967</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -23145,7 +23145,7 @@
         <v>44909</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>44946</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>45425.94947916667</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -23316,7 +23316,7 @@
         <v>44599.42277777778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>45524</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>44593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44593.61355324074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45194.63479166666</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
         <v>44426</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23735,7 +23735,7 @@
         <v>45344</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>45803.63395833333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>44608</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45202.4997337963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45805.4094675926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>45805.41010416667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -24102,7 +24102,7 @@
         <v>45805.41813657407</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45805.43402777778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45552</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>44593</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>45805.4255787037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>45511</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44960</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44960.66233796296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>45810.44339120371</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45215.44233796297</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45726</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45757</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45839</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45809</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>45453.69339120371</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>45810.44299768518</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>45809</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45812.48032407407</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44553</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>45890</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -25287,7 +25287,7 @@
         <v>45231</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -25344,7 +25344,7 @@
         <v>44575</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -25401,7 +25401,7 @@
         <v>45097</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
         <v>45721.34715277778</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
         <v>45814</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45813.46034722222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>44893</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -25686,7 +25686,7 @@
         <v>45369</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44904</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44659</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>45818.57910879629</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>45358</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>45891.4865625</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>45817</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45379</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>44912.29869212963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>44614.69730324074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -26281,7 +26281,7 @@
         <v>45443</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -26343,7 +26343,7 @@
         <v>44967.55960648148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45820</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45820</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45523</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -26571,7 +26571,7 @@
         <v>45817</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>45891.33204861111</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>45721.60894675926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26747,7 +26747,7 @@
         <v>45254</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>45820</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26861,7 +26861,7 @@
         <v>45821.45905092593</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26918,7 +26918,7 @@
         <v>45891.46827546296</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26975,7 +26975,7 @@
         <v>45824.43798611111</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -27037,7 +27037,7 @@
         <v>45202</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -27099,7 +27099,7 @@
         <v>45821.44101851852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -27156,7 +27156,7 @@
         <v>45896.61050925926</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -27213,7 +27213,7 @@
         <v>45896</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
         <v>45896</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>45896.57171296296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>45896.57368055556</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -27441,7 +27441,7 @@
         <v>45825.44482638889</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>45897</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>45827.62096064815</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>45827.64092592592</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>45390</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27788,7 +27788,7 @@
         <v>44617.48311342593</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27845,7 +27845,7 @@
         <v>45901.41756944444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27907,7 +27907,7 @@
         <v>45902.42243055555</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45827.46288194445</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -28031,7 +28031,7 @@
         <v>45901.41853009259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -28093,7 +28093,7 @@
         <v>44977</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>45831.42616898148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>45446.78256944445</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>45831.73</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -28336,7 +28336,7 @@
         <v>45903.69096064815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45903.69358796296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45729</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -28517,7 +28517,7 @@
         <v>45769.6009375</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -28574,7 +28574,7 @@
         <v>45693</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -28631,7 +28631,7 @@
         <v>45809</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45809</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -28755,7 +28755,7 @@
         <v>45832.35590277778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45831.40671296296</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>45799.53348379629</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45904</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45903</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45832.35545138889</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45831.72686342592</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>45426</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45904.77746527778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>44733</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>45905.64862268518</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>45905.5756712963</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>45835.62752314815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>44994</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>44665</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>45068.58563657408</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>45426.34148148148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29811,7 +29811,7 @@
         <v>45363.54878472222</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44967.80034722222</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44967</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45839</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44929</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>45839</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>45821.31292824074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>45840</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45730.43966435185</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>45614</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -30416,7 +30416,7 @@
         <v>45841.5847337963</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45583</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>45042</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>44608</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>44909.51885416666</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>45720.60410879629</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>45842.74049768518</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>45600</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30887,7 +30887,7 @@
         <v>45912.7097337963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>45107.53688657407</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>45456.59535879629</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45679</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>45763.52744212963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>45152</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45845.53202546296</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45520</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45851.60097222222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>45851.62018518519</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>45915.64064814815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>45644.62677083333</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         <v>45426</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -31710,7 +31710,7 @@
         <v>45849.49259259259</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45852.67366898148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45852.39642361111</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45852.36871527778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45852.68978009259</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
         <v>45474.41729166666</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>45852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -32129,7 +32129,7 @@
         <v>45852.72965277778</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45854.44017361111</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45913.39467592593</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45856.34959490741</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>45856</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>45856.34034722222</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45856.34231481481</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>45916</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>45831.42365740741</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45642</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>45838</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -32796,7 +32796,7 @@
         <v>45695.83655092592</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45838</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>45918.37322916667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45707</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45922.42865740741</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>45349</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>45863.44648148148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>45863.45355324074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>45645</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>45113</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>45113.80170138889</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>45757.6997337963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -33495,7 +33495,7 @@
         <v>45757</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -33552,7 +33552,7 @@
         <v>45631.44464120371</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>45922.48148148148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -33686,7 +33686,7 @@
         <v>45922.46763888889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>45922</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>45922</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>45867.58056712963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>45923.70230324074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45693</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>45719.4094212963</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>45923.70146990741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>45926.63290509259</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45926.45846064815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -34281,7 +34281,7 @@
         <v>45719.43872685185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>45926.366875</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>45831.46731481481</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>45926.35917824074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45926.35998842592</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>45614</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44644.37548611111</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>45926.63366898148</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -34767,7 +34767,7 @@
         <v>45926.63232638889</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -34829,7 +34829,7 @@
         <v>44400.6750925926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>44403.3119212963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45930.55024305556</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45929.53203703704</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         <v>45929.69553240741</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -35134,7 +35134,7 @@
         <v>45929.6965162037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -35196,7 +35196,7 @@
         <v>44980</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>45182</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -35310,7 +35310,7 @@
         <v>45931.59091435185</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45931.52792824074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45932.37375</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45874</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45931.37734953704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -35610,7 +35610,7 @@
         <v>44508.44033564815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45932.59373842592</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45932.61177083333</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>45874.705</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>44519.64902777778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         <v>45931.37796296296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35972,7 +35972,7 @@
         <v>45876</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -36029,7 +36029,7 @@
         <v>45656</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45876</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -36148,7 +36148,7 @@
         <v>45098.63572916666</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -36205,7 +36205,7 @@
         <v>45877.57847222222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -36262,7 +36262,7 @@
         <v>45880.32907407408</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>45851.62179398148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>45694</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>45880.34064814815</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -36495,7 +36495,7 @@
         <v>45932.62907407407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45880</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -36614,7 +36614,7 @@
         <v>45877.62969907407</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44820.47935185185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -36733,7 +36733,7 @@
         <v>45624</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -36790,7 +36790,7 @@
         <v>45880.68200231482</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -36847,7 +36847,7 @@
         <v>45691</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -36909,7 +36909,7 @@
         <v>45881.45898148148</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36966,7 +36966,7 @@
         <v>45679</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>45065.43013888889</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>45838</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>45637</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>44532</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -37261,7 +37261,7 @@
         <v>45882.52290509259</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
         <v>45691</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -37375,7 +37375,7 @@
         <v>45882.37202546297</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -37432,7 +37432,7 @@
         <v>45931.59373842592</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -37494,7 +37494,7 @@
         <v>45881.44938657407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -37551,7 +37551,7 @@
         <v>45691</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -37608,7 +37608,7 @@
         <v>45719.43755787037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -37670,7 +37670,7 @@
         <v>45054.95675925926</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -37727,7 +37727,7 @@
         <v>45047.31793981481</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -37784,7 +37784,7 @@
         <v>44888</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>45934.55967592593</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -37908,7 +37908,7 @@
         <v>45127</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37965,7 +37965,7 @@
         <v>44379.5745949074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -38022,7 +38022,7 @@
         <v>45938.3615625</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -38084,7 +38084,7 @@
         <v>45048.55349537037</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -38141,7 +38141,7 @@
         <v>45937.68865740741</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -38198,7 +38198,7 @@
         <v>45937</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -38255,7 +38255,7 @@
         <v>45937</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -38312,7 +38312,7 @@
         <v>44848</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -38369,7 +38369,7 @@
         <v>45259</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -38426,7 +38426,7 @@
         <v>45938.35063657408</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>45940.45038194444</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -38550,7 +38550,7 @@
         <v>45223</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -38607,7 +38607,7 @@
         <v>45939.32621527778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44420</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -38721,7 +38721,7 @@
         <v>44993</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>45940.67084490741</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>45940.67305555556</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -38892,7 +38892,7 @@
         <v>45714.55368055555</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>45763.52995370371</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -39006,7 +39006,7 @@
         <v>44531</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -39063,7 +39063,7 @@
         <v>45942.84414351852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -39120,7 +39120,7 @@
         <v>45884</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>45942.80185185185</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>45942.80318287037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>44532</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>45944</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -39415,7 +39415,7 @@
         <v>45942.79476851852</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>45943.70756944444</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>45942.8396412037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45946.64121527778</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>45898.46040509259</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45757.67611111111</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>45078</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44378.56137731481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>45946.30063657407</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39948,7 +39948,7 @@
         <v>45946.31299768519</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -40005,7 +40005,7 @@
         <v>45950.55603009259</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -40067,7 +40067,7 @@
         <v>45947.4724537037</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -40129,7 +40129,7 @@
         <v>45946.75140046296</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -40186,7 +40186,7 @@
         <v>45946.76038194444</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -40243,7 +40243,7 @@
         <v>45950</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -40300,7 +40300,7 @@
         <v>45949</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         <v>45202</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -40414,7 +40414,7 @@
         <v>45947.58105324074</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -40476,7 +40476,7 @@
         <v>45950</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -40533,7 +40533,7 @@
         <v>45638</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -40590,7 +40590,7 @@
         <v>44900.54711805555</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -40647,7 +40647,7 @@
         <v>45580</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -40704,7 +40704,7 @@
         <v>44944</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -40761,7 +40761,7 @@
         <v>45555.5727662037</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -40818,7 +40818,7 @@
         <v>45295</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>45953.53460648148</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -40937,7 +40937,7 @@
         <v>45554</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40994,7 +40994,7 @@
         <v>45953.53765046296</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -41051,7 +41051,7 @@
         <v>45954.51438657408</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -41108,7 +41108,7 @@
         <v>44816</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -41165,7 +41165,7 @@
         <v>45954.528125</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -41222,7 +41222,7 @@
         <v>45954.38475694445</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -41279,7 +41279,7 @@
         <v>45763.6503125</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>45316</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45958.49162037037</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>45317</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -41517,7 +41517,7 @@
         <v>45958.6516087963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -41579,7 +41579,7 @@
         <v>45307</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -41636,7 +41636,7 @@
         <v>45104.6828125</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -41693,7 +41693,7 @@
         <v>45957.95233796296</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -41750,7 +41750,7 @@
         <v>45642</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
         <v>45958.37273148148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -41869,7 +41869,7 @@
         <v>45119</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -41926,7 +41926,7 @@
         <v>45958.60826388889</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41988,7 +41988,7 @@
         <v>45958.62303240741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -42050,7 +42050,7 @@
         <v>45958.64146990741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -42112,7 +42112,7 @@
         <v>45957</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -42169,7 +42169,7 @@
         <v>45958.62765046296</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -42231,7 +42231,7 @@
         <v>45958.62983796297</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -42293,7 +42293,7 @@
         <v>45957.66506944445</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -42350,7 +42350,7 @@
         <v>44966</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -42412,7 +42412,7 @@
         <v>45958.61577546296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -42474,7 +42474,7 @@
         <v>45958.63368055555</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -42536,7 +42536,7 @@
         <v>44501.71344907407</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -42598,7 +42598,7 @@
         <v>45960.43065972222</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -42655,7 +42655,7 @@
         <v>45756.44024305556</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -42712,7 +42712,7 @@
         <v>45756.50738425926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -42769,7 +42769,7 @@
         <v>45959.36146990741</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -42831,7 +42831,7 @@
         <v>45644</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -42888,7 +42888,7 @@
         <v>45959.35965277778</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45959.60851851852</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -43012,7 +43012,7 @@
         <v>44548</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -43069,7 +43069,7 @@
         <v>44550.37994212963</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>44980</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -43188,7 +43188,7 @@
         <v>45961.41853009259</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         <v>45961.40716435185</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -43302,7 +43302,7 @@
         <v>45965.82398148148</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -43364,7 +43364,7 @@
         <v>45966.53721064814</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45254.49552083333</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45611</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45964.76486111111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45344.64759259259</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -43659,7 +43659,7 @@
         <v>45966.53849537037</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -43721,7 +43721,7 @@
         <v>45107</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -43778,7 +43778,7 @@
         <v>45107</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -43835,7 +43835,7 @@
         <v>45107</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         <v>45344.69567129629</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -43954,7 +43954,7 @@
         <v>44816</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -44016,7 +44016,7 @@
         <v>45965.61792824074</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -44073,7 +44073,7 @@
         <v>45965</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45965.81543981482</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>45133</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         <v>45096</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -44311,7 +44311,7 @@
         <v>45098.62966435185</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -44368,7 +44368,7 @@
         <v>44544</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -44425,7 +44425,7 @@
         <v>44519</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -44482,7 +44482,7 @@
         <v>45335</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -44544,7 +44544,7 @@
         <v>45293</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -44601,7 +44601,7 @@
         <v>45163.59913194444</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -44658,7 +44658,7 @@
         <v>45096</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -44715,7 +44715,7 @@
         <v>45294.5666550926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -44777,7 +44777,7 @@
         <v>45971.37480324074</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -44834,7 +44834,7 @@
         <v>44553</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -44891,7 +44891,7 @@
         <v>45840.68518518518</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -44948,7 +44948,7 @@
         <v>45971.70613425926</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -45010,7 +45010,7 @@
         <v>45936.73660879629</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -45067,7 +45067,7 @@
         <v>45972</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -45124,7 +45124,7 @@
         <v>44603</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -45181,7 +45181,7 @@
         <v>45161</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -45238,7 +45238,7 @@
         <v>45524</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>44629.57741898148</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -45362,7 +45362,7 @@
         <v>45468</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -45419,7 +45419,7 @@
         <v>45037</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -45481,7 +45481,7 @@
         <v>45975.5341550926</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -45538,7 +45538,7 @@
         <v>45975.59520833333</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -45595,7 +45595,7 @@
         <v>45134.57021990741</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>44533.46665509259</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45975.65054398148</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -45776,7 +45776,7 @@
         <v>45975.424375</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>45975.37621527778</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -45895,7 +45895,7 @@
         <v>45021.29524305555</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -45957,7 +45957,7 @@
         <v>45583</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -46019,7 +46019,7 @@
         <v>45583</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -46081,7 +46081,7 @@
         <v>44535</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>44637.35744212963</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -46195,7 +46195,7 @@
         <v>45036</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -46252,7 +46252,7 @@
         <v>45624</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -46309,7 +46309,7 @@
         <v>45162</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -46371,7 +46371,7 @@
         <v>45159.44694444445</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
         <v>45980.4484837963</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>45145</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -46542,7 +46542,7 @@
         <v>45981</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -46604,7 +46604,7 @@
         <v>45982</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -46661,7 +46661,7 @@
         <v>45981.58204861111</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -46718,7 +46718,7 @@
         <v>45201.62318287037</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45981</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>45358</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>44522</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -46951,7 +46951,7 @@
         <v>45981.60923611111</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -47013,7 +47013,7 @@
         <v>45981.61822916667</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -47075,7 +47075,7 @@
         <v>44616</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -47137,7 +47137,7 @@
         <v>45181.33571759259</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -47194,7 +47194,7 @@
         <v>45958.58711805556</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>45981.57793981482</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>44516</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -47370,7 +47370,7 @@
         <v>45177.56940972222</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -47427,7 +47427,7 @@
         <v>45736.60863425926</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -47489,7 +47489,7 @@
         <v>45983.85069444445</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -47546,7 +47546,7 @@
         <v>45763</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -47603,7 +47603,7 @@
         <v>45943.53451388889</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -47665,7 +47665,7 @@
         <v>45943.5354050926</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -47727,7 +47727,7 @@
         <v>45644</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -47784,7 +47784,7 @@
         <v>45159.45748842593</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -47841,7 +47841,7 @@
         <v>45943.53341435185</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -47903,7 +47903,7 @@
         <v>45988.61304398148</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -47965,7 +47965,7 @@
         <v>45643</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -48022,7 +48022,7 @@
         <v>44678.3315625</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -48084,7 +48084,7 @@
         <v>44610</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         <v>45615</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -48203,7 +48203,7 @@
         <v>45638</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -48260,7 +48260,7 @@
         <v>45943.53659722222</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -48322,7 +48322,7 @@
         <v>45992.60832175926</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -48379,7 +48379,7 @@
         <v>45992.47825231482</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -48436,7 +48436,7 @@
         <v>45644</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -48493,7 +48493,7 @@
         <v>45188</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -48555,7 +48555,7 @@
         <v>44832.49594907407</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -48612,7 +48612,7 @@
         <v>45338.49412037037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -48669,7 +48669,7 @@
         <v>45721.35173611111</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -48726,7 +48726,7 @@
         <v>45994.62346064814</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -48788,7 +48788,7 @@
         <v>45148</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -48845,7 +48845,7 @@
         <v>45148</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -48902,7 +48902,7 @@
         <v>45148</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -48959,7 +48959,7 @@
         <v>45940</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -49016,7 +49016,7 @@
         <v>44588</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -49073,7 +49073,7 @@
         <v>45323.55914351852</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -49135,7 +49135,7 @@
         <v>45995.31793981481</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -49192,7 +49192,7 @@
         <v>45194</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -49254,7 +49254,7 @@
         <v>45995.31737268518</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -49311,7 +49311,7 @@
         <v>45581</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>45995.63483796296</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -49425,7 +49425,7 @@
         <v>45601</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -49487,7 +49487,7 @@
         <v>44594</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -49544,7 +49544,7 @@
         <v>45638</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>45371</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -49663,7 +49663,7 @@
         <v>45677</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -49720,7 +49720,7 @@
         <v>45190</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -49777,7 +49777,7 @@
         <v>44629.42423611111</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -49834,7 +49834,7 @@
         <v>45351.54596064815</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -49896,7 +49896,7 @@
         <v>45999</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -49953,7 +49953,7 @@
         <v>45054.9271875</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -50010,7 +50010,7 @@
         <v>45987</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -50067,7 +50067,7 @@
         <v>45646.50211805556</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -50124,7 +50124,7 @@
         <v>45173</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -50181,7 +50181,7 @@
         <v>44594</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -50238,7 +50238,7 @@
         <v>45194.60876157408</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -50300,7 +50300,7 @@
         <v>44819.62</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -50357,7 +50357,7 @@
         <v>45055</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -50414,7 +50414,7 @@
         <v>45182</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -50471,7 +50471,7 @@
         <v>45182</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -50528,7 +50528,7 @@
         <v>45093.46706018518</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -50590,7 +50590,7 @@
         <v>45407.69575231482</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -50647,7 +50647,7 @@
         <v>45188.42052083334</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -50704,7 +50704,7 @@
         <v>45231.62840277778</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -50761,7 +50761,7 @@
         <v>45677</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -50818,7 +50818,7 @@
         <v>45695.8391550926</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -50880,7 +50880,7 @@
         <v>45695.84078703704</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -50942,7 +50942,7 @@
         <v>46045</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -50999,7 +50999,7 @@
         <v>45216</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -51056,7 +51056,7 @@
         <v>45216</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -51118,7 +51118,7 @@
         <v>45173</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -51175,7 +51175,7 @@
         <v>45694</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -51232,7 +51232,7 @@
         <v>44588</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -51289,7 +51289,7 @@
         <v>45729</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -51346,7 +51346,7 @@
         <v>45208.4350462963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -51403,7 +51403,7 @@
         <v>45981</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -51460,7 +51460,7 @@
         <v>45705</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -51517,7 +51517,7 @@
         <v>45180.40255787037</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -51579,7 +51579,7 @@
         <v>44614.59027777778</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -51636,7 +51636,7 @@
         <v>44679.68706018518</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -51698,7 +51698,7 @@
         <v>45149.56928240741</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45181.36815972222</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>44679.66694444444</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         <v>46051.88001157407</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -51941,7 +51941,7 @@
         <v>46051</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -51998,7 +51998,7 @@
         <v>45182</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45175</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -52117,7 +52117,7 @@
         <v>46009.63920138889</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -52174,7 +52174,7 @@
         <v>46051.48957175926</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -52231,7 +52231,7 @@
         <v>46013.55923611111</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>46013.57037037037</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>46055.36872685186</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -52407,7 +52407,7 @@
         <v>46055.61907407407</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>45699</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -52521,7 +52521,7 @@
         <v>45152</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45694.49037037037</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>46011.70635416666</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -52697,7 +52697,7 @@
         <v>46013.56292824074</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -52754,7 +52754,7 @@
         <v>44699</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>46013.56641203703</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>45225.46480324074</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45131</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>46057.6280787037</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45259</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -53106,7 +53106,7 @@
         <v>45236.47697916667</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -53163,7 +53163,7 @@
         <v>46014.35287037037</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -53225,7 +53225,7 @@
         <v>46014.45854166667</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -53282,7 +53282,7 @@
         <v>45299</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -53339,7 +53339,7 @@
         <v>45267</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -53401,7 +53401,7 @@
         <v>45236</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -53458,7 +53458,7 @@
         <v>46062.73762731482</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -53520,7 +53520,7 @@
         <v>46062.73936342593</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -53582,7 +53582,7 @@
         <v>46062.74180555555</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -53644,7 +53644,7 @@
         <v>46059.76059027778</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -53706,7 +53706,7 @@
         <v>46059.43493055556</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>46059.4413425926</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -53830,7 +53830,7 @@
         <v>46062.53357638889</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -53887,7 +53887,7 @@
         <v>45719.42197916667</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -53949,7 +53949,7 @@
         <v>45719.43646990741</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -54011,7 +54011,7 @@
         <v>45968.76021990741</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -54073,7 +54073,7 @@
         <v>44799.36695601852</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -54130,7 +54130,7 @@
         <v>45254</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -54187,7 +54187,7 @@
         <v>45321</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -54244,7 +54244,7 @@
         <v>45317</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -54301,7 +54301,7 @@
         <v>45361.57299768519</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -54363,7 +54363,7 @@
         <v>46064.78336805556</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -54420,7 +54420,7 @@
         <v>46065.72112268519</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         <v>45164.82913194445</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -54539,7 +54539,7 @@
         <v>45351.48662037037</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -54596,7 +54596,7 @@
         <v>44930</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -54653,7 +54653,7 @@
         <v>45310</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -54710,7 +54710,7 @@
         <v>44438</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -54772,7 +54772,7 @@
         <v>46064</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -54829,7 +54829,7 @@
         <v>46065.50152777778</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -54886,7 +54886,7 @@
         <v>46065.49472222223</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -54943,7 +54943,7 @@
         <v>45091.69766203704</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -55000,7 +55000,7 @@
         <v>45751.32001157408</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -55057,7 +55057,7 @@
         <v>46069.57407407407</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -55119,7 +55119,7 @@
         <v>46030</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -55181,7 +55181,7 @@
         <v>45693</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -55238,7 +55238,7 @@
         <v>46030.56152777778</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -55295,7 +55295,7 @@
         <v>44788</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -55352,7 +55352,7 @@
         <v>45761.47540509259</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -55409,7 +55409,7 @@
         <v>45761.47748842592</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -55466,7 +55466,7 @@
         <v>46029.40886574074</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -55523,7 +55523,7 @@
         <v>45693</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -55580,7 +55580,7 @@
         <v>44817</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -55637,7 +55637,7 @@
         <v>45216.39040509259</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -55694,7 +55694,7 @@
         <v>45478</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -55756,7 +55756,7 @@
         <v>45599</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -55813,7 +55813,7 @@
         <v>46031.63210648148</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -55870,7 +55870,7 @@
         <v>45642.63524305556</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -55927,7 +55927,7 @@
         <v>45646.61892361111</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -55984,7 +55984,7 @@
         <v>46076.50559027777</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -56046,7 +56046,7 @@
         <v>44984.69216435185</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -56108,7 +56108,7 @@
         <v>44379.56163194445</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -56165,7 +56165,7 @@
         <v>45391.37361111111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -56222,7 +56222,7 @@
         <v>45520</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -56279,7 +56279,7 @@
         <v>44581.60254629629</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -56341,7 +56341,7 @@
         <v>44568.67040509259</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -56403,7 +56403,7 @@
         <v>46057.60431712963</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -56460,7 +56460,7 @@
         <v>44908.425625</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -56517,7 +56517,7 @@
         <v>44358.63490740741</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -56574,7 +56574,7 @@
         <v>44949.4708912037</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -56631,7 +56631,7 @@
         <v>44403.29719907408</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -56693,7 +56693,7 @@
         <v>46077.68528935185</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         <v>44946.43564814814</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -56812,7 +56812,7 @@
         <v>45033</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -56869,7 +56869,7 @@
         <v>44531</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -56926,7 +56926,7 @@
         <v>46077.67903935185</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -56988,7 +56988,7 @@
         <v>46077.68155092592</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -57050,7 +57050,7 @@
         <v>44273</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -57107,7 +57107,7 @@
         <v>44960</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -57164,7 +57164,7 @@
         <v>44593.64863425926</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -57226,7 +57226,7 @@
         <v>44928</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -57288,7 +57288,7 @@
         <v>45552</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -57345,7 +57345,7 @@
         <v>46049.58660879629</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45121</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -57464,7 +57464,7 @@
         <v>44819.50233796296</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -57526,7 +57526,7 @@
         <v>44616</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -57583,7 +57583,7 @@
         <v>44886</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -57640,7 +57640,7 @@
         <v>46059.76631944445</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -57702,7 +57702,7 @@
         <v>44560</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -57759,7 +57759,7 @@
         <v>44600</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -57821,7 +57821,7 @@
         <v>44623.41775462963</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -57883,7 +57883,7 @@
         <v>44623.5571875</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -57945,7 +57945,7 @@
         <v>45167.3721412037</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -58002,7 +58002,7 @@
         <v>46080.58021990741</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -58059,7 +58059,7 @@
         <v>44965</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -58116,7 +58116,7 @@
         <v>44965</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -58173,7 +58173,7 @@
         <v>45308.63298611111</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -58230,7 +58230,7 @@
         <v>45212.34997685185</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -58287,7 +58287,7 @@
         <v>44886.5928125</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -58344,7 +58344,7 @@
         <v>45293</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -58401,7 +58401,7 @@
         <v>45181.58055555556</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -58463,7 +58463,7 @@
         <v>45670</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -58525,7 +58525,7 @@
         <v>44742</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -58587,7 +58587,7 @@
         <v>45231</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -58644,7 +58644,7 @@
         <v>45341</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         <v>45594</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -58768,7 +58768,7 @@
         <v>45300.55028935185</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -58825,7 +58825,7 @@
         <v>45097</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -58882,7 +58882,7 @@
         <v>44969</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -58939,7 +58939,7 @@
         <v>44944</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -58996,7 +58996,7 @@
         <v>45601</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -59053,7 +59053,7 @@
         <v>45154.35092592592</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -59110,7 +59110,7 @@
         <v>44652</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -59167,7 +59167,7 @@
         <v>45678</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -59224,7 +59224,7 @@
         <v>44679</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -59281,7 +59281,7 @@
         <v>45656</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -59343,7 +59343,7 @@
         <v>45694</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -59400,7 +59400,7 @@
         <v>44806</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -59457,7 +59457,7 @@
         <v>45049.66025462963</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -59514,7 +59514,7 @@
         <v>44574</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -59571,7 +59571,7 @@
         <v>44645.39157407408</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -59633,7 +59633,7 @@
         <v>44497.4666087963</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -59690,7 +59690,7 @@
         <v>45152</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -59747,7 +59747,7 @@
         <v>44964.65261574074</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -59804,7 +59804,7 @@
         <v>44599.44832175926</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -59861,7 +59861,7 @@
         <v>45638</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -59918,7 +59918,7 @@
         <v>45000.44666666666</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -59975,7 +59975,7 @@
         <v>45762.61341435185</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -60032,7 +60032,7 @@
         <v>45713.44519675926</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -60089,7 +60089,7 @@
         <v>45327.61831018519</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         <v>45352</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -60203,7 +60203,7 @@
         <v>44944</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -60260,7 +60260,7 @@
         <v>45266</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -60317,7 +60317,7 @@
         <v>44872</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -60374,7 +60374,7 @@
         <v>45513.51815972223</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -60436,7 +60436,7 @@
         <v>45617.59006944444</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -60493,7 +60493,7 @@
         <v>45049</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -60550,7 +60550,7 @@
         <v>44560</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -60607,7 +60607,7 @@
         <v>45336.53908564815</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -60664,7 +60664,7 @@
         <v>45614.67020833334</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -60721,7 +60721,7 @@
         <v>45770.61341435185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -60783,7 +60783,7 @@
         <v>45677.39440972222</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -60840,7 +60840,7 @@
         <v>45169</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -60902,7 +60902,7 @@
         <v>45244.52202546296</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -60964,7 +60964,7 @@
         <v>45435.34778935185</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         <v>45763</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -61083,7 +61083,7 @@
         <v>45548.42854166667</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -61140,7 +61140,7 @@
         <v>44532</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -61197,7 +61197,7 @@
         <v>45190</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -61254,7 +61254,7 @@
         <v>44977</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -61311,7 +61311,7 @@
         <v>45336.54270833333</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -61368,7 +61368,7 @@
         <v>45110</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -61425,7 +61425,7 @@
         <v>45194</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -61487,7 +61487,7 @@
         <v>45474</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -61544,7 +61544,7 @@
         <v>45611</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -61601,7 +61601,7 @@
         <v>45300.55680555556</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -61658,7 +61658,7 @@
         <v>45589</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -61715,7 +61715,7 @@
         <v>45589</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -61772,7 +61772,7 @@
         <v>44609.60171296296</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -61834,7 +61834,7 @@
         <v>44503</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -61891,7 +61891,7 @@
         <v>44624.35083333333</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -61953,7 +61953,7 @@
         <v>45456.58491898148</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -62010,7 +62010,7 @@
         <v>44897</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -62067,7 +62067,7 @@
         <v>45729</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -62124,7 +62124,7 @@
         <v>45729</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -62181,7 +62181,7 @@
         <v>45327</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -62238,7 +62238,7 @@
         <v>45014</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -62295,7 +62295,7 @@
         <v>45222</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -62352,7 +62352,7 @@
         <v>44593</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -62409,7 +62409,7 @@
         <v>45685.5778125</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         <v>45695.59805555556</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -62528,7 +62528,7 @@
         <v>45460</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -62590,7 +62590,7 @@
         <v>45345.56</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -62647,7 +62647,7 @@
         <v>44914.67600694444</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -62704,7 +62704,7 @@
         <v>45061</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -62761,7 +62761,7 @@
         <v>45583.47836805556</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -62823,7 +62823,7 @@
         <v>44912</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -62880,7 +62880,7 @@
         <v>44967.78984953704</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -62937,7 +62937,7 @@
         <v>45075.51982638889</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -62994,7 +62994,7 @@
         <v>45699</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -63051,7 +63051,7 @@
         <v>45733.63099537037</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -63108,7 +63108,7 @@
         <v>45426.61569444444</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -63165,7 +63165,7 @@
         <v>45478.60802083334</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -63227,7 +63227,7 @@
         <v>45719.40723379629</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -63289,7 +63289,7 @@
         <v>45154.34931712963</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -63346,7 +63346,7 @@
         <v>45699.71063657408</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -63403,7 +63403,7 @@
         <v>45729</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -63460,7 +63460,7 @@
         <v>45743.50744212963</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -63517,7 +63517,7 @@
         <v>45175.57060185185</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -63574,7 +63574,7 @@
         <v>45695.59197916667</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -63636,7 +63636,7 @@
         <v>45644.47723379629</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         <v>45006</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -63750,7 +63750,7 @@
         <v>45307</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -63807,7 +63807,7 @@
         <v>45614</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -63864,7 +63864,7 @@
         <v>45327</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -63921,7 +63921,7 @@
         <v>45300</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -63978,7 +63978,7 @@
         <v>45670</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -64040,7 +64040,7 @@
         <v>45776.48275462963</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -64102,7 +64102,7 @@
         <v>45776</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -64159,7 +64159,7 @@
         <v>45776.45263888889</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -64221,7 +64221,7 @@
         <v>45107.55574074074</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -64278,7 +64278,7 @@
         <v>45776.6415162037</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -64340,7 +64340,7 @@
         <v>45777.37119212963</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -64402,7 +64402,7 @@
         <v>45777.34894675926</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -64464,7 +64464,7 @@
         <v>45777.32731481481</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -64526,7 +64526,7 @@
         <v>45777.52655092593</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -64583,7 +64583,7 @@
         <v>45777</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -64640,7 +64640,7 @@
         <v>45520</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -64697,7 +64697,7 @@
         <v>45574</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -64754,7 +64754,7 @@
         <v>45779.6665162037</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -64816,7 +64816,7 @@
         <v>45779.65787037037</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -64878,7 +64878,7 @@
         <v>45779.49085648148</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -64940,7 +64940,7 @@
         <v>45783.61053240741</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -64997,7 +64997,7 @@
         <v>45784.57266203704</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -65059,7 +65059,7 @@
         <v>44569.49344907407</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -65121,7 +65121,7 @@
         <v>45407.49721064815</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -65178,7 +65178,7 @@
         <v>45784.80497685185</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -65235,7 +65235,7 @@
         <v>45329</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -65292,7 +65292,7 @@
         <v>45177.79766203704</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -65354,7 +65354,7 @@
         <v>45558.42498842593</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -65411,7 +65411,7 @@
         <v>45562</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -65468,7 +65468,7 @@
         <v>45368.64787037037</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -65530,7 +65530,7 @@
         <v>44569.69358796296</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -65592,7 +65592,7 @@
         <v>45684</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -65649,7 +65649,7 @@
         <v>45254</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -65706,7 +65706,7 @@
         <v>45726</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -65763,7 +65763,7 @@
         <v>45371.67368055556</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -65820,7 +65820,7 @@
         <v>45790.51040509259</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -65877,7 +65877,7 @@
         <v>45091</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -65939,7 +65939,7 @@
         <v>45790.44972222222</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -65996,7 +65996,7 @@
         <v>45583.48449074074</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -66058,7 +66058,7 @@
         <v>45584.60038194444</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         <v>45625.58501157408</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -66177,7 +66177,7 @@
         <v>45525</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -66234,7 +66234,7 @@
         <v>45335.66331018518</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -66296,7 +66296,7 @@
         <v>45195.64807870371</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -66353,7 +66353,7 @@
         <v>45636</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -66410,7 +66410,7 @@
         <v>44277.65650462963</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -66467,7 +66467,7 @@
         <v>45490</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -66524,7 +66524,7 @@
         <v>45439</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -66586,7 +66586,7 @@
         <v>45429</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -66643,7 +66643,7 @@
         <v>45797.45900462963</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -66705,7 +66705,7 @@
         <v>45798.42252314815</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -66762,7 +66762,7 @@
         <v>45797.42777777778</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -66819,7 +66819,7 @@
         <v>45693</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -66876,7 +66876,7 @@
         <v>45799.53803240741</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -66938,7 +66938,7 @@
         <v>45799.5421875</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -67000,7 +67000,7 @@
         <v>45799.57714120371</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -67057,7 +67057,7 @@
         <v>45799.64877314815</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -67119,7 +67119,7 @@
         <v>45733.62903935185</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -67176,7 +67176,7 @@
         <v>45799.53947916667</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -67238,7 +67238,7 @@
         <v>45799.54104166666</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -67300,7 +67300,7 @@
         <v>45737.40503472222</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -67357,7 +67357,7 @@
         <v>45799.65021990741</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -67419,7 +67419,7 @@
         <v>45799.6527199074</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -67481,7 +67481,7 @@
         <v>45799.43496527777</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -67543,7 +67543,7 @@
         <v>45086.7037037037</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -67605,7 +67605,7 @@
         <v>45744</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -67662,7 +67662,7 @@
         <v>45341</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -67719,7 +67719,7 @@
         <v>45608</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -67776,7 +67776,7 @@
         <v>45803.36384259259</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
